--- a/CCK8-Transfection_Plots/20231211_CCK8-Transfection_DIPLibrary_reducedserum.xlsx
+++ b/CCK8-Transfection_Plots/20231211_CCK8-Transfection_DIPLibrary_reducedserum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/CCK8_Transfection_Plots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/CCK8-Transfection_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993F0550-F3A4-614B-A725-7C51978AB3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698A3140-2668-CF42-B5C0-229AAF567715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="660" windowWidth="24420" windowHeight="15980" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1180" yWindow="660" windowWidth="24420" windowHeight="15980" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="DIPPolyplexesCalcs2" sheetId="6" r:id="rId7"/>
     <sheet name="PolymerOnly" sheetId="3" r:id="rId8"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="MethodPointer1">1759294816</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="107">
   <si>
     <t>Software Version</t>
   </si>
@@ -354,6 +355,18 @@
   </si>
   <si>
     <t>Untreated</t>
+  </si>
+  <si>
+    <t>Polymer</t>
+  </si>
+  <si>
+    <t>N/P Ratio</t>
+  </si>
+  <si>
+    <t>Stdev</t>
+  </si>
+  <si>
+    <t>STD_Viability</t>
   </si>
 </sst>
 </file>
@@ -2665,6 +2678,526 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99341371-646B-0D4F-8882-B5BDB1610B63}">
+  <dimension ref="A1:F1048576"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="D2">
+        <v>5.773502691896258E-3</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>4.8562229493959439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.19000000000000003</v>
+      </c>
+      <c r="D3">
+        <v>4.5825756949558372E-2</v>
+      </c>
+      <c r="E3">
+        <v>73.344947735191653</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>61.753333333333337</v>
+      </c>
+      <c r="D4">
+        <v>4.9677895822320517</v>
+      </c>
+      <c r="E4">
+        <v>91.114982578397218</v>
+      </c>
+      <c r="F4">
+        <v>2.1194294530655773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>58.93</v>
+      </c>
+      <c r="D5">
+        <v>2.3766362784406025</v>
+      </c>
+      <c r="E5">
+        <v>58.536585365853668</v>
+      </c>
+      <c r="F5">
+        <v>9.9226695929604247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>50.883333333333333</v>
+      </c>
+      <c r="D7">
+        <v>3.1989425336090886</v>
+      </c>
+      <c r="E7">
+        <v>30.139372822299649</v>
+      </c>
+      <c r="F7">
+        <v>5.6479320827342647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8">
+        <v>7.5</v>
+      </c>
+      <c r="C8">
+        <v>57.650000000000006</v>
+      </c>
+      <c r="D8">
+        <v>0.30805843601499044</v>
+      </c>
+      <c r="E8">
+        <v>24.321329639889193</v>
+      </c>
+      <c r="F8">
+        <v>3.8634467305509022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0.08</v>
+      </c>
+      <c r="D11">
+        <v>7.2111025509279794E-2</v>
+      </c>
+      <c r="E11">
+        <v>90.011614401858296</v>
+      </c>
+      <c r="F11">
+        <v>4.3565619822325221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>7.5</v>
+      </c>
+      <c r="C12">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="D12">
+        <v>7.5055534994651382E-2</v>
+      </c>
+      <c r="E12">
+        <v>93.074792243767305</v>
+      </c>
+      <c r="F12">
+        <v>3.4704619974217956</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>48.733333333333327</v>
+      </c>
+      <c r="D15">
+        <v>1.4189197769195159</v>
+      </c>
+      <c r="E15">
+        <v>34.204413472706158</v>
+      </c>
+      <c r="F15">
+        <v>1.2359928370379072</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16">
+        <v>7.5</v>
+      </c>
+      <c r="C16">
+        <v>52.126666666666665</v>
+      </c>
+      <c r="D16">
+        <v>6.658328118479527E-2</v>
+      </c>
+      <c r="E16">
+        <v>24.321329639889196</v>
+      </c>
+      <c r="F16">
+        <v>3.066170438121147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>33.660000000000004</v>
+      </c>
+      <c r="D19">
+        <v>0.87109126961530092</v>
+      </c>
+      <c r="E19">
+        <v>31.30193905817174</v>
+      </c>
+      <c r="F19">
+        <v>6.1772232087607311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20">
+        <v>7.5</v>
+      </c>
+      <c r="C20">
+        <v>44.22</v>
+      </c>
+      <c r="D20">
+        <v>0.59101607423148805</v>
+      </c>
+      <c r="E20">
+        <v>27.922437673130197</v>
+      </c>
+      <c r="F20">
+        <v>2.912146615169291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>24.756666666666671</v>
+      </c>
+      <c r="D23">
+        <v>0.49074772881118062</v>
+      </c>
+      <c r="E23">
+        <v>53.019390581717452</v>
+      </c>
+      <c r="F23">
+        <v>2.912146615169291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24">
+        <v>7.5</v>
+      </c>
+      <c r="C24">
+        <v>32.884999999999998</v>
+      </c>
+      <c r="D24">
+        <v>0.5868986283848332</v>
+      </c>
+      <c r="E24">
+        <v>39.00277008310249</v>
+      </c>
+      <c r="F24">
+        <v>3.0661704381211563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1048576" s="41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1389271-5B62-5E46-B1D0-300481CC9DBA}">
   <dimension ref="B2:O29"/>
@@ -4457,7 +4990,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E10"/>
+      <selection activeCell="B6" sqref="B6:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5048,7 +5581,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E10"/>
+      <selection activeCell="B6" sqref="B6:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6263,7 +6796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5B6B2A-22BB-234A-99B7-8736E7874F4B}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>

--- a/CCK8-Transfection_Plots/20231211_CCK8-Transfection_DIPLibrary_reducedserum.xlsx
+++ b/CCK8-Transfection_Plots/20231211_CCK8-Transfection_DIPLibrary_reducedserum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/CCK8-Transfection_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698A3140-2668-CF42-B5C0-229AAF567715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB63194B-D073-154B-B33D-7B2B57C84DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="660" windowWidth="24420" windowHeight="15980" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15980" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,11 @@
     <sheet name="combined" sheetId="9" r:id="rId5"/>
     <sheet name="DIPPolyplexes-NP7" sheetId="8" r:id="rId6"/>
     <sheet name="DIPPolyplexesCalcs2" sheetId="6" r:id="rId7"/>
-    <sheet name="PolymerOnly" sheetId="3" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId9"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet4" sheetId="12" r:id="rId8"/>
+    <sheet name="PolymerOnly" sheetId="3" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="MethodPointer1">1759294816</definedName>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="130">
   <si>
     <t>Software Version</t>
   </si>
@@ -367,6 +369,75 @@
   </si>
   <si>
     <t>STD_Viability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1 </t>
+  </si>
+  <si>
+    <t>G1-1</t>
+  </si>
+  <si>
+    <t>G2-1</t>
+  </si>
+  <si>
+    <t>G3-1</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>G1-10</t>
+  </si>
+  <si>
+    <t>G2-10</t>
+  </si>
+  <si>
+    <t>G3-10</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Cr-</t>
+  </si>
+  <si>
+    <t>Cr+</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S-10-SERUM</t>
+  </si>
+  <si>
+    <t>S-7.5-SERUM</t>
+  </si>
+  <si>
+    <t>S5-SERUM</t>
+  </si>
+  <si>
+    <t>AVG.</t>
+  </si>
+  <si>
+    <t>% VIABILITY</t>
+  </si>
+  <si>
+    <t>control</t>
   </si>
 </sst>
 </file>
@@ -410,7 +481,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,6 +570,90 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF5197CC"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5197CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6FA9D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3385C2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF428EC7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F3FF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E9F9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBAD7EF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF247CBD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFABCEEA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF60A0D1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9E0F4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7EB2DB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DBCE0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CC5E5"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -618,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -742,6 +897,120 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1035,7 +1304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O70"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="109" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="109" workbookViewId="0">
       <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
@@ -1301,7 +1570,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="85" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="7">
@@ -1345,7 +1614,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B40" s="48"/>
+      <c r="B40" s="86"/>
       <c r="C40" s="12">
         <v>0.61399999999999999</v>
       </c>
@@ -1387,7 +1656,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B41" s="48"/>
+      <c r="B41" s="86"/>
       <c r="C41" s="17">
         <v>8.2000000000000003E-2</v>
       </c>
@@ -1429,7 +1698,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B42" s="49"/>
+      <c r="B42" s="87"/>
       <c r="C42" s="19" t="s">
         <v>42</v>
       </c>
@@ -1471,7 +1740,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="85" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="25">
@@ -1515,7 +1784,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B44" s="48"/>
+      <c r="B44" s="86"/>
       <c r="C44" s="17">
         <v>0.16700000000000001</v>
       </c>
@@ -1557,7 +1826,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B45" s="48"/>
+      <c r="B45" s="86"/>
       <c r="C45" s="18">
         <v>0.04</v>
       </c>
@@ -1599,7 +1868,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B46" s="49"/>
+      <c r="B46" s="87"/>
       <c r="C46" s="23">
         <v>35106</v>
       </c>
@@ -1641,7 +1910,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="85" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="31">
@@ -1685,7 +1954,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B48" s="48"/>
+      <c r="B48" s="86"/>
       <c r="C48" s="18">
         <v>5.0999999999999997E-2</v>
       </c>
@@ -1727,7 +1996,7 @@
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B49" s="48"/>
+      <c r="B49" s="86"/>
       <c r="C49" s="18">
         <v>4.4999999999999998E-2</v>
       </c>
@@ -1769,7 +2038,7 @@
       </c>
     </row>
     <row r="50" spans="2:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B50" s="49"/>
+      <c r="B50" s="87"/>
       <c r="C50" s="32">
         <v>14514</v>
       </c>
@@ -1811,7 +2080,7 @@
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="85" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="7">
@@ -1855,7 +2124,7 @@
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B52" s="48"/>
+      <c r="B52" s="86"/>
       <c r="C52" s="15">
         <v>0.51300000000000001</v>
       </c>
@@ -1897,7 +2166,7 @@
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B53" s="48"/>
+      <c r="B53" s="86"/>
       <c r="C53" s="18">
         <v>4.1000000000000002E-2</v>
       </c>
@@ -1939,7 +2208,7 @@
       </c>
     </row>
     <row r="54" spans="2:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B54" s="49"/>
+      <c r="B54" s="87"/>
       <c r="C54" s="20">
         <v>26417</v>
       </c>
@@ -1981,7 +2250,7 @@
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B55" s="47" t="s">
+      <c r="B55" s="85" t="s">
         <v>47</v>
       </c>
       <c r="C55" s="27">
@@ -2025,7 +2294,7 @@
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B56" s="48"/>
+      <c r="B56" s="86"/>
       <c r="C56" s="30">
         <v>0.318</v>
       </c>
@@ -2067,7 +2336,7 @@
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B57" s="48"/>
+      <c r="B57" s="86"/>
       <c r="C57" s="18">
         <v>0.04</v>
       </c>
@@ -2109,7 +2378,7 @@
       </c>
     </row>
     <row r="58" spans="2:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B58" s="49"/>
+      <c r="B58" s="87"/>
       <c r="C58" s="36">
         <v>68459</v>
       </c>
@@ -2151,7 +2420,7 @@
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B59" s="47" t="s">
+      <c r="B59" s="85" t="s">
         <v>48</v>
       </c>
       <c r="C59" s="31">
@@ -2195,7 +2464,7 @@
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B60" s="48"/>
+      <c r="B60" s="86"/>
       <c r="C60" s="18">
         <v>5.2999999999999999E-2</v>
       </c>
@@ -2237,7 +2506,7 @@
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B61" s="48"/>
+      <c r="B61" s="86"/>
       <c r="C61" s="18">
         <v>4.4999999999999998E-2</v>
       </c>
@@ -2279,7 +2548,7 @@
       </c>
     </row>
     <row r="62" spans="2:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B62" s="49"/>
+      <c r="B62" s="87"/>
       <c r="C62" s="32">
         <v>14778</v>
       </c>
@@ -2321,7 +2590,7 @@
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B63" s="47" t="s">
+      <c r="B63" s="85" t="s">
         <v>49</v>
       </c>
       <c r="C63" s="26">
@@ -2365,7 +2634,7 @@
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B64" s="48"/>
+      <c r="B64" s="86"/>
       <c r="C64" s="29">
         <v>0.19</v>
       </c>
@@ -2407,7 +2676,7 @@
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B65" s="48"/>
+      <c r="B65" s="86"/>
       <c r="C65" s="18">
         <v>4.2000000000000003E-2</v>
       </c>
@@ -2449,7 +2718,7 @@
       </c>
     </row>
     <row r="66" spans="2:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B66" s="49"/>
+      <c r="B66" s="87"/>
       <c r="C66" s="40">
         <v>73882</v>
       </c>
@@ -2491,7 +2760,7 @@
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B67" s="47" t="s">
+      <c r="B67" s="85" t="s">
         <v>50</v>
       </c>
       <c r="C67" s="25">
@@ -2535,7 +2804,7 @@
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B68" s="48"/>
+      <c r="B68" s="86"/>
       <c r="C68" s="17">
         <v>0.16800000000000001</v>
       </c>
@@ -2577,7 +2846,7 @@
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B69" s="48"/>
+      <c r="B69" s="86"/>
       <c r="C69" s="18">
         <v>4.2000000000000003E-2</v>
       </c>
@@ -2619,7 +2888,7 @@
       </c>
     </row>
     <row r="70" spans="2:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B70" s="49"/>
+      <c r="B70" s="87"/>
       <c r="C70" s="38">
         <v>63464</v>
       </c>
@@ -2679,11 +2948,163 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F902425A-80F3-0944-83D1-0F01CA2A06A3}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1">
+        <v>24.321329639889193</v>
+      </c>
+      <c r="C1">
+        <v>3.8634467305509022</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ref="D1:D5" si="0">AVERAGE(F1:H1)</f>
+        <v>57.650000000000006</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E5" si="1">STDEV(F1:H1)</f>
+        <v>0.30805843601499044</v>
+      </c>
+      <c r="F1">
+        <v>57.3</v>
+      </c>
+      <c r="G1" s="41">
+        <v>57.88</v>
+      </c>
+      <c r="H1" s="41">
+        <v>57.77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2">
+        <v>93.074792243767305</v>
+      </c>
+      <c r="C2">
+        <v>3.4704619974217956</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="1"/>
+        <v>7.5055534994651382E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.22</v>
+      </c>
+      <c r="G2" s="41">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H2" s="41">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3">
+        <v>24.321329639889196</v>
+      </c>
+      <c r="C3">
+        <v>3.066170438121147</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>52.126666666666665</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>6.658328118479527E-2</v>
+      </c>
+      <c r="F3">
+        <v>52.16</v>
+      </c>
+      <c r="G3" s="41">
+        <v>52.05</v>
+      </c>
+      <c r="H3" s="41">
+        <v>52.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4">
+        <v>27.922437673130197</v>
+      </c>
+      <c r="C4">
+        <v>2.912146615169291</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>44.22</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.59101607423148805</v>
+      </c>
+      <c r="F4">
+        <v>43.83</v>
+      </c>
+      <c r="G4" s="41">
+        <v>43.93</v>
+      </c>
+      <c r="H4" s="41">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5">
+        <v>39.00277008310249</v>
+      </c>
+      <c r="C5">
+        <v>3.0661704381211563</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>32.884999999999998</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.5868986283848332</v>
+      </c>
+      <c r="F5">
+        <v>32.47</v>
+      </c>
+      <c r="G5" s="41">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99341371-646B-0D4F-8882-B5BDB1610B63}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2712,8 +3133,8 @@
       <c r="A2" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" s="41" t="s">
+        <v>129</v>
       </c>
       <c r="C2">
         <v>3.3333333333333335E-3</v>
@@ -2732,8 +3153,8 @@
       <c r="A3" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" s="41" t="s">
+        <v>129</v>
       </c>
       <c r="C3">
         <v>0.19000000000000003</v>
@@ -2796,16 +3217,16 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>3.0550504633038954E-2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>81.211041852181651</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2.7221315177632412</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2856,16 +3277,16 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>69.353333333333339</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.98398848231741731</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>26.001780943900265</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.30550504633038922</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -2882,10 +3303,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>86.553873552983092</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1.7776388834631207</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -2942,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>84.68388245770258</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2.2338307903688657</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -2962,10 +3383,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>78.895814781834389</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2.1825062046494468</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -3016,16 +3437,16 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>63.476666666666667</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.19655363983741009</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>29.385574354407829</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.52915026221291994</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -3042,10 +3463,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>84.594835262689216</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1.3428824718989139</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -3096,16 +3517,16 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>54.493333333333332</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.46360903068569725</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>25.022261798753341</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.46188021535170104</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -3122,10 +3543,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>87.266251113089936</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1.7559422921421231</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -3176,21 +3597,256 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>54.229741763134456</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>5.2848841046895201</v>
       </c>
     </row>
     <row r="1048576" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1048576" s="41" t="s">
         <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33E0B39-F6B5-314A-BEC9-769A8B8D8C22}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ref="D1:D10" si="0">AVERAGE(F1:H1)</f>
+        <v>0.10666666666666667</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E10" si="1">STDEV(F1:H1)</f>
+        <v>3.0550504633038954E-2</v>
+      </c>
+      <c r="F1">
+        <v>0.1</v>
+      </c>
+      <c r="G1" s="41">
+        <v>0.08</v>
+      </c>
+      <c r="H1" s="41">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="41">
+        <v>0</v>
+      </c>
+      <c r="H2" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="41">
+        <v>0</v>
+      </c>
+      <c r="H3" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="41">
+        <v>0</v>
+      </c>
+      <c r="H4" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="41">
+        <v>0</v>
+      </c>
+      <c r="H5" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>69.353333333333339</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.98398848231741731</v>
+      </c>
+      <c r="F6">
+        <v>68.25</v>
+      </c>
+      <c r="G6" s="41">
+        <v>70.14</v>
+      </c>
+      <c r="H6" s="41">
+        <v>69.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="41">
+        <v>0</v>
+      </c>
+      <c r="H7" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>63.476666666666667</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.19655363983741009</v>
+      </c>
+      <c r="F8">
+        <v>63.33</v>
+      </c>
+      <c r="G8" s="41">
+        <v>63.7</v>
+      </c>
+      <c r="H8" s="41">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>54.493333333333332</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.46360903068569725</v>
+      </c>
+      <c r="F9">
+        <v>54.8</v>
+      </c>
+      <c r="G9" s="41">
+        <v>54.72</v>
+      </c>
+      <c r="H9" s="41">
+        <v>53.96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>24.883333333333329</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>19.485133649357746</v>
+      </c>
+      <c r="F10">
+        <v>44.41</v>
+      </c>
+      <c r="G10" s="41">
+        <v>5.44</v>
+      </c>
+      <c r="H10" s="41">
+        <v>24.8</v>
       </c>
     </row>
   </sheetData>
@@ -3203,7 +3859,7 @@
   <dimension ref="B2:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3248,7 +3904,7 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="85" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="7">
@@ -3292,7 +3948,7 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B4" s="48"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="12">
         <v>0.61399999999999999</v>
       </c>
@@ -3334,7 +3990,7 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="48"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="17">
         <v>8.2000000000000003E-2</v>
       </c>
@@ -3376,7 +4032,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B6" s="49"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="19" t="s">
         <v>42</v>
       </c>
@@ -3418,7 +4074,7 @@
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="85" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="25">
@@ -3462,7 +4118,7 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="48"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="17">
         <v>0.16700000000000001</v>
       </c>
@@ -3504,7 +4160,7 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B9" s="48"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="18">
         <v>0.04</v>
       </c>
@@ -3546,7 +4202,7 @@
       </c>
     </row>
     <row r="10" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B10" s="49"/>
+      <c r="B10" s="87"/>
       <c r="C10" s="23">
         <v>35106</v>
       </c>
@@ -4116,10 +4772,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF87D0F1-1FED-DE43-A470-6A532E76C497}">
-  <dimension ref="B1:O29"/>
+  <dimension ref="B1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4145,7 +4801,7 @@
       </c>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="85" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="7">
@@ -4189,7 +4845,7 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B3" s="48"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="15">
         <v>0.51300000000000001</v>
       </c>
@@ -4231,7 +4887,7 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B4" s="48"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="18">
         <v>4.1000000000000002E-2</v>
       </c>
@@ -4273,7 +4929,7 @@
       </c>
     </row>
     <row r="5" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B5" s="49"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="20">
         <v>26417</v>
       </c>
@@ -4315,7 +4971,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="85" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="27">
@@ -4359,7 +5015,7 @@
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="48"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="30">
         <v>0.318</v>
       </c>
@@ -4401,7 +5057,7 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="48"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="18">
         <v>0.04</v>
       </c>
@@ -4443,7 +5099,7 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B9" s="49"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="36">
         <v>68459</v>
       </c>
@@ -4975,6 +5631,11 @@
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C29" s="41"/>
+    </row>
+    <row r="41" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J41" s="41" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5308,10 +5969,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3456FD3D-97C2-3E44-9D02-09866C7A7031}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="I33" sqref="I33:P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5406,16 +6067,16 @@
         <v>101</v>
       </c>
       <c r="B6">
-        <v>30.139372822299649</v>
+        <v>81.211041852181651</v>
       </c>
       <c r="C6">
-        <v>5.6479320827342647</v>
+        <v>2.7221315177632412</v>
       </c>
       <c r="D6">
-        <v>50.883333333333333</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="E6">
-        <v>3.1989425336090886</v>
+        <v>3.0550504633038954E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -5423,16 +6084,16 @@
         <v>44</v>
       </c>
       <c r="B7">
-        <v>90.011614401858296</v>
+        <v>86.553873552983092</v>
       </c>
       <c r="C7">
-        <v>4.3565619822325221</v>
+        <v>1.7776388834631207</v>
       </c>
       <c r="D7">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>7.2111025509279794E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -5440,16 +6101,16 @@
         <v>100</v>
       </c>
       <c r="B8">
-        <v>34.204413472706158</v>
+        <v>78.895814781834389</v>
       </c>
       <c r="C8">
-        <v>1.2359928370379072</v>
+        <v>2.1825062046494468</v>
       </c>
       <c r="D8">
-        <v>48.733333333333327</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1.4189197769195159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -5457,16 +6118,16 @@
         <v>98</v>
       </c>
       <c r="B9">
-        <v>31.30193905817174</v>
+        <v>84.594835262689216</v>
       </c>
       <c r="C9">
-        <v>6.1772232087607311</v>
+        <v>1.3428824718989139</v>
       </c>
       <c r="D9">
-        <v>33.660000000000004</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.87109126961530092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -5474,16 +6135,16 @@
         <v>99</v>
       </c>
       <c r="B10">
-        <v>53.019390581717452</v>
+        <v>87.266251113089936</v>
       </c>
       <c r="C10">
-        <v>2.912146615169291</v>
+        <v>1.7559422921421231</v>
       </c>
       <c r="D10">
-        <v>24.756666666666671</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.49074772881118062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -5491,16 +6152,16 @@
         <v>101</v>
       </c>
       <c r="B11">
-        <v>24.321329639889193</v>
+        <v>30.139372822299649</v>
       </c>
       <c r="C11">
-        <v>3.8634467305509022</v>
+        <v>5.6479320827342647</v>
       </c>
       <c r="D11">
-        <v>57.650000000000006</v>
+        <v>50.883333333333333</v>
       </c>
       <c r="E11">
-        <v>0.30805843601499044</v>
+        <v>3.1989425336090886</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -5508,16 +6169,16 @@
         <v>44</v>
       </c>
       <c r="B12">
-        <v>93.074792243767305</v>
+        <v>90.011614401858296</v>
       </c>
       <c r="C12">
-        <v>3.4704619974217956</v>
+        <v>4.3565619822325221</v>
       </c>
       <c r="D12">
-        <v>0.21666666666666667</v>
+        <v>0.08</v>
       </c>
       <c r="E12">
-        <v>7.5055534994651382E-2</v>
+        <v>7.2111025509279794E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -5525,16 +6186,16 @@
         <v>100</v>
       </c>
       <c r="B13">
-        <v>24.321329639889196</v>
+        <v>34.204413472706158</v>
       </c>
       <c r="C13">
-        <v>3.066170438121147</v>
+        <v>1.2359928370379072</v>
       </c>
       <c r="D13">
-        <v>52.126666666666665</v>
+        <v>48.733333333333327</v>
       </c>
       <c r="E13">
-        <v>6.658328118479527E-2</v>
+        <v>1.4189197769195159</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -5542,16 +6203,16 @@
         <v>98</v>
       </c>
       <c r="B14">
-        <v>27.922437673130197</v>
+        <v>31.30193905817174</v>
       </c>
       <c r="C14">
-        <v>2.912146615169291</v>
+        <v>6.1772232087607311</v>
       </c>
       <c r="D14">
-        <v>44.22</v>
+        <v>33.660000000000004</v>
       </c>
       <c r="E14">
-        <v>0.59101607423148805</v>
+        <v>0.87109126961530092</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -5559,17 +6220,267 @@
         <v>99</v>
       </c>
       <c r="B15">
+        <v>53.019390581717452</v>
+      </c>
+      <c r="C15">
+        <v>2.912146615169291</v>
+      </c>
+      <c r="D15">
+        <v>24.756666666666671</v>
+      </c>
+      <c r="E15">
+        <v>0.49074772881118062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16">
+        <v>24.321329639889193</v>
+      </c>
+      <c r="C16">
+        <v>3.8634467305509022</v>
+      </c>
+      <c r="D16">
+        <v>57.650000000000006</v>
+      </c>
+      <c r="E16">
+        <v>0.30805843601499044</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>93.074792243767305</v>
+      </c>
+      <c r="C17">
+        <v>3.4704619974217956</v>
+      </c>
+      <c r="D17">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="E17">
+        <v>7.5055534994651382E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18">
+        <v>24.321329639889196</v>
+      </c>
+      <c r="C18">
+        <v>3.066170438121147</v>
+      </c>
+      <c r="D18">
+        <v>52.126666666666665</v>
+      </c>
+      <c r="E18">
+        <v>6.658328118479527E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19">
+        <v>27.922437673130197</v>
+      </c>
+      <c r="C19">
+        <v>2.912146615169291</v>
+      </c>
+      <c r="D19">
+        <v>44.22</v>
+      </c>
+      <c r="E19">
+        <v>0.59101607423148805</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20">
         <v>39.00277008310249</v>
       </c>
-      <c r="C15">
+      <c r="C20">
         <v>3.0661704381211563</v>
       </c>
-      <c r="D15">
+      <c r="D20">
         <v>32.884999999999998</v>
       </c>
-      <c r="E15">
+      <c r="E20">
         <v>0.5868986283848332</v>
       </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21">
+        <v>26.001780943900265</v>
+      </c>
+      <c r="C21">
+        <v>0.30550504633038922</v>
+      </c>
+      <c r="D21">
+        <v>69.353333333333339</v>
+      </c>
+      <c r="E21">
+        <v>0.98398848231741731</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>84.68388245770258</v>
+      </c>
+      <c r="C22">
+        <v>2.2338307903688657</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23">
+        <v>29.385574354407829</v>
+      </c>
+      <c r="C23">
+        <v>0.52915026221291994</v>
+      </c>
+      <c r="D23">
+        <v>63.476666666666667</v>
+      </c>
+      <c r="E23">
+        <v>0.19655363983741009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24">
+        <v>25.022261798753341</v>
+      </c>
+      <c r="C24">
+        <v>0.46188021535170104</v>
+      </c>
+      <c r="D24">
+        <v>54.493333333333332</v>
+      </c>
+      <c r="E24">
+        <v>0.46360903068569725</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25">
+        <v>54.229741763134456</v>
+      </c>
+      <c r="C25">
+        <v>5.2848841046895201</v>
+      </c>
+      <c r="D25">
+        <v>24.883333333333329</v>
+      </c>
+      <c r="E25">
+        <v>19.485133649357746</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J28" s="41"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J29" s="41"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J30" s="41"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J31" s="41"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J32" s="41"/>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J33" s="41"/>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J34" s="41"/>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J35" s="41"/>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J36" s="41"/>
+    </row>
+    <row r="37" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J37" s="41"/>
+    </row>
+    <row r="38" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J38" s="41"/>
+    </row>
+    <row r="39" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J39" s="41"/>
+    </row>
+    <row r="40" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J40" s="41"/>
+    </row>
+    <row r="41" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J41" s="41"/>
+    </row>
+    <row r="42" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J42" s="41"/>
+    </row>
+    <row r="43" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J43" s="41"/>
+    </row>
+    <row r="44" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J44" s="41"/>
+    </row>
+    <row r="45" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J45" s="41"/>
+    </row>
+    <row r="46" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J46" s="41"/>
+    </row>
+    <row r="47" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J47" s="41"/>
+    </row>
+    <row r="48" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J48" s="41"/>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J49" s="41"/>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J50" s="41"/>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J51" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5891,7 +6802,7 @@
       </c>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="85" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="26">
@@ -5935,7 +6846,7 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B3" s="48"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="29">
         <v>0.19</v>
       </c>
@@ -5977,7 +6888,7 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B4" s="48"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="18">
         <v>4.2000000000000003E-2</v>
       </c>
@@ -6019,7 +6930,7 @@
       </c>
     </row>
     <row r="5" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B5" s="49"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="40">
         <v>73882</v>
       </c>
@@ -6061,7 +6972,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="85" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="25">
@@ -6105,7 +7016,7 @@
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="48"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="17">
         <v>0.16800000000000001</v>
       </c>
@@ -6147,7 +7058,7 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="48"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="18">
         <v>4.2000000000000003E-2</v>
       </c>
@@ -6189,7 +7100,7 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B9" s="49"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="38">
         <v>63464</v>
       </c>
@@ -6793,6 +7704,1541 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C058FAC-84B6-B94F-AD70-5B288E54D629}">
+  <dimension ref="E7:X78"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22:X33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="7" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E7" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E8" s="73">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="F8" s="73">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="G8" s="50">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="H8" s="73">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="I8" s="73">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="J8" s="49">
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E9" s="75">
+        <v>0.434</v>
+      </c>
+      <c r="F9" s="75">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="G9" s="54">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="H9" s="75">
+        <v>0.438</v>
+      </c>
+      <c r="I9" s="75">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="J9" s="53">
+        <v>0.39300000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E10" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F10" s="55">
+        <v>0.04</v>
+      </c>
+      <c r="G10" s="56">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H10" s="62">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I10" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J10" s="55">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E11" s="57">
+        <v>31703</v>
+      </c>
+      <c r="F11" s="63">
+        <v>28955</v>
+      </c>
+      <c r="G11" s="77">
+        <v>42294</v>
+      </c>
+      <c r="H11" s="57">
+        <v>30570</v>
+      </c>
+      <c r="I11" s="57">
+        <v>30527</v>
+      </c>
+      <c r="J11" s="63">
+        <v>29707</v>
+      </c>
+    </row>
+    <row r="12" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="N12">
+        <f>H9-H10</f>
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ref="O12:P12" si="0">I9-I10</f>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>0.35400000000000004</v>
+      </c>
+      <c r="Q12">
+        <f>AVERAGE(N12:P12)</f>
+        <v>0.37433333333333335</v>
+      </c>
+    </row>
+    <row r="13" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+    </row>
+    <row r="14" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+    </row>
+    <row r="15" spans="5:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="E15" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E16" s="47">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="F16" s="49">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="G16" s="50">
+        <v>0.36</v>
+      </c>
+      <c r="H16" s="50">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="I16" s="48">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="J16" s="60">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="17" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E17" s="51">
+        <v>0.35</v>
+      </c>
+      <c r="F17" s="53">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="G17" s="54">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="H17" s="54">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="I17" s="52">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="J17" s="61">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="18" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E18" s="55">
+        <v>0.04</v>
+      </c>
+      <c r="F18" s="55">
+        <v>0.04</v>
+      </c>
+      <c r="G18" s="56">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H18" s="68">
+        <v>0.06</v>
+      </c>
+      <c r="I18" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J18" s="55">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E19" s="57">
+        <v>32581</v>
+      </c>
+      <c r="F19" s="63">
+        <v>29104</v>
+      </c>
+      <c r="G19" s="57">
+        <v>30443</v>
+      </c>
+      <c r="H19" s="78">
+        <v>49382</v>
+      </c>
+      <c r="I19" s="59">
+        <v>41996</v>
+      </c>
+      <c r="J19" s="77">
+        <v>46907</v>
+      </c>
+    </row>
+    <row r="20" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+    </row>
+    <row r="21" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="Q21" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="R21" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="S21" s="41"/>
+      <c r="X21" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="M22" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="N22">
+        <f>H25-H26</f>
+        <v>0.3</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ref="O22:P22" si="1">I25-I26</f>
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="Q22">
+        <f>AVERAGE(N22:P22)</f>
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="R22">
+        <f>Q22/Q$12*100</f>
+        <v>81.211041852181651</v>
+      </c>
+      <c r="S22">
+        <f>Q22/Q$12</f>
+        <v>0.81211041852181653</v>
+      </c>
+      <c r="U22">
+        <f>N22*100</f>
+        <v>30</v>
+      </c>
+      <c r="V22">
+        <f t="shared" ref="V22:W26" si="2">O22*100</f>
+        <v>27.900000000000002</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="2"/>
+        <v>33.300000000000004</v>
+      </c>
+      <c r="X22">
+        <f>STDEV(U22:W22)</f>
+        <v>2.7221315177632412</v>
+      </c>
+    </row>
+    <row r="23" spans="5:24" ht="14" x14ac:dyDescent="0.15">
+      <c r="E23" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="J23" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="M23" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="N23">
+        <f>E33-E34</f>
+        <v>0.318</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ref="O23:P23" si="3">F33-F34</f>
+        <v>0.34400000000000003</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" ref="Q23:Q33" si="4">AVERAGE(N23:P23)</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="R23">
+        <f t="shared" ref="R23:R33" si="5">Q23/Q$12*100</f>
+        <v>86.553873552983092</v>
+      </c>
+      <c r="S23">
+        <f t="shared" ref="S23:S33" si="6">Q23/Q$12</f>
+        <v>0.86553873552983085</v>
+      </c>
+      <c r="U23">
+        <f t="shared" ref="U23:U33" si="7">N23*100</f>
+        <v>31.8</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="2"/>
+        <v>34.400000000000006</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="X23">
+        <f t="shared" ref="X23:X33" si="8">STDEV(U23:W23)</f>
+        <v>1.7776388834631207</v>
+      </c>
+    </row>
+    <row r="24" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E24" s="66">
+        <v>0.214</v>
+      </c>
+      <c r="F24" s="65">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="G24" s="65">
+        <v>0.255</v>
+      </c>
+      <c r="H24" s="47">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="I24" s="60">
+        <v>0.32</v>
+      </c>
+      <c r="J24" s="49">
+        <v>0.378</v>
+      </c>
+      <c r="M24" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="N24">
+        <f>H33-H34</f>
+        <v>0.29100000000000004</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ref="O24:P24" si="9">I33-I34</f>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="9"/>
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="4"/>
+        <v>0.29533333333333339</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="5"/>
+        <v>78.895814781834389</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="6"/>
+        <v>0.78895814781834384</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="7"/>
+        <v>29.100000000000005</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="2"/>
+        <v>27.6</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="2"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="8"/>
+        <v>2.1825062046494468</v>
+      </c>
+    </row>
+    <row r="25" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E25" s="74">
+        <v>0.215</v>
+      </c>
+      <c r="F25" s="69">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="G25" s="68">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="H25" s="51">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="I25" s="61">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="J25" s="54">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="M25" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="N25">
+        <f>E40-E41</f>
+        <v>0.311</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ref="O25:P25" si="10">F40-F41</f>
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="10"/>
+        <v>0.307</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="4"/>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="5"/>
+        <v>84.594835262689216</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="6"/>
+        <v>0.84594835262689216</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="7"/>
+        <v>31.1</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="2"/>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="2"/>
+        <v>30.7</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="8"/>
+        <v>1.3428824718989139</v>
+      </c>
+    </row>
+    <row r="26" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E26" s="76">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F26" s="55">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G26" s="68">
+        <v>0.06</v>
+      </c>
+      <c r="H26" s="76">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="I26" s="56">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J26" s="70">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="M26" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="N26">
+        <f>H40-H41</f>
+        <v>0.31</v>
+      </c>
+      <c r="O26">
+        <f t="shared" ref="O26:P26" si="11">I40-I41</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="11"/>
+        <v>0.34500000000000003</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="4"/>
+        <v>0.32666666666666666</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="5"/>
+        <v>87.266251113089936</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="6"/>
+        <v>0.87266251113089932</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="2"/>
+        <v>32.5</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="2"/>
+        <v>34.5</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="8"/>
+        <v>1.7559422921421231</v>
+      </c>
+    </row>
+    <row r="27" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E27" s="64">
+        <v>77385</v>
+      </c>
+      <c r="F27" s="77">
+        <v>48186</v>
+      </c>
+      <c r="G27" s="77">
+        <v>48302</v>
+      </c>
+      <c r="H27" s="59">
+        <v>38245</v>
+      </c>
+      <c r="I27" s="59">
+        <v>39250</v>
+      </c>
+      <c r="J27" s="57">
+        <v>31606</v>
+      </c>
+    </row>
+    <row r="28" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+    </row>
+    <row r="29" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="M29" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="N29">
+        <f>E48-E49</f>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ref="O29:P29" si="12">F48-F49</f>
+        <v>9.4E-2</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="12"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>9.7333333333333327E-2</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="5"/>
+        <v>26.001780943900265</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="6"/>
+        <v>0.26001780943900266</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="7"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="V29">
+        <f t="shared" ref="V29:V33" si="13">O29*100</f>
+        <v>9.4</v>
+      </c>
+      <c r="W29">
+        <f t="shared" ref="W29:W33" si="14">P29*100</f>
+        <v>10</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="8"/>
+        <v>0.30550504633038922</v>
+      </c>
+    </row>
+    <row r="30" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="M30" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="N30">
+        <f>H48-H49</f>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ref="O30:P30" si="15">I48-I49</f>
+        <v>0.29200000000000004</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="15"/>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="4"/>
+        <v>0.317</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="5"/>
+        <v>84.68388245770258</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="6"/>
+        <v>0.84683882457702575</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="7"/>
+        <v>33.5</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="13"/>
+        <v>29.200000000000003</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="14"/>
+        <v>32.4</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="8"/>
+        <v>2.2338307903688657</v>
+      </c>
+    </row>
+    <row r="31" spans="5:24" ht="14" x14ac:dyDescent="0.15">
+      <c r="E31" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="J31" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="M31" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="N31">
+        <f>E56-E57</f>
+        <v>0.10799999999999998</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ref="O31:P31" si="16">F56-F57</f>
+        <v>0.10599999999999998</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="16"/>
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="4"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="5"/>
+        <v>29.385574354407829</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="6"/>
+        <v>0.29385574354407829</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="7"/>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="13"/>
+        <v>10.599999999999998</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="14"/>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="8"/>
+        <v>0.52915026221291994</v>
+      </c>
+    </row>
+    <row r="32" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E32" s="50">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="F32" s="49">
+        <v>0.378</v>
+      </c>
+      <c r="G32" s="47">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="H32" s="47">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="I32" s="60">
+        <v>0.316</v>
+      </c>
+      <c r="J32" s="50">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="M32" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="N32">
+        <f>H56-H57</f>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ref="O32:P32" si="17">I56-I57</f>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="17"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="4"/>
+        <v>9.3666666666666676E-2</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="5"/>
+        <v>25.022261798753341</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="6"/>
+        <v>0.25022261798753342</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="7"/>
+        <v>9.1</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="13"/>
+        <v>9.1</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="14"/>
+        <v>9.9</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="8"/>
+        <v>0.46188021535170104</v>
+      </c>
+    </row>
+    <row r="33" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E33" s="54">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="F33" s="53">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="G33" s="51">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="H33" s="51">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="I33" s="61">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="J33" s="54">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="M33" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="N33">
+        <f>E64-E65</f>
+        <v>0.154</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ref="O33:P33" si="18">F64-F65</f>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="18"/>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="4"/>
+        <v>0.20299999999999999</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="5"/>
+        <v>54.229741763134456</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="6"/>
+        <v>0.54229741763134454</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="7"/>
+        <v>15.4</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="13"/>
+        <v>25.900000000000002</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="14"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="8"/>
+        <v>5.2848841046895201</v>
+      </c>
+    </row>
+    <row r="34" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E34" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F34" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G34" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H34" s="56">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="I34" s="56">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J34" s="76">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E35" s="57">
+        <v>31992</v>
+      </c>
+      <c r="F35" s="57">
+        <v>31280</v>
+      </c>
+      <c r="G35" s="57">
+        <v>31514</v>
+      </c>
+      <c r="H35" s="57">
+        <v>32137</v>
+      </c>
+      <c r="I35" s="57">
+        <v>32959</v>
+      </c>
+      <c r="J35" s="59">
+        <v>39826</v>
+      </c>
+    </row>
+    <row r="38" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E38" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="J38" s="41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E39" s="50">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="F39" s="50">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="G39" s="47">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="H39" s="50">
+        <v>0.35</v>
+      </c>
+      <c r="I39" s="50">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="J39" s="49">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="40" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E40" s="51">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F40" s="54">
+        <v>0.371</v>
+      </c>
+      <c r="G40" s="51">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="H40" s="51">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I40" s="54">
+        <v>0.373</v>
+      </c>
+      <c r="J40" s="53">
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E41" s="55">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F41" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G41" s="55">
+        <v>0.04</v>
+      </c>
+      <c r="H41" s="56">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="I41" s="70">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J41" s="55">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E42" s="57">
+        <v>31527</v>
+      </c>
+      <c r="F42" s="57">
+        <v>31117</v>
+      </c>
+      <c r="G42" s="57">
+        <v>32196</v>
+      </c>
+      <c r="H42" s="57">
+        <v>32642</v>
+      </c>
+      <c r="I42" s="63">
+        <v>29777</v>
+      </c>
+      <c r="J42" s="63">
+        <v>29506</v>
+      </c>
+    </row>
+    <row r="43" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+    </row>
+    <row r="44" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="83"/>
+    </row>
+    <row r="45" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+    </row>
+    <row r="46" spans="5:24" ht="14" x14ac:dyDescent="0.15">
+      <c r="E46" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="G46" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="I46" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="J46" s="84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E47" s="67">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="F47" s="67">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G47" s="67">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="H47" s="50">
+        <v>0.371</v>
+      </c>
+      <c r="I47" s="47">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="J47" s="50">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E48" s="70">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F48" s="76">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G48" s="70">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="H48" s="54">
+        <v>0.376</v>
+      </c>
+      <c r="I48" s="51">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="J48" s="54">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E49" s="55">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F49" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G49" s="56">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H49" s="55">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="I49" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J49" s="55">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="50" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E50" s="58">
+        <v>97436</v>
+      </c>
+      <c r="F50" s="64">
+        <v>75163</v>
+      </c>
+      <c r="G50" s="64">
+        <v>76244</v>
+      </c>
+      <c r="H50" s="57">
+        <v>33675</v>
+      </c>
+      <c r="I50" s="57">
+        <v>33346</v>
+      </c>
+      <c r="J50" s="63">
+        <v>28264</v>
+      </c>
+    </row>
+    <row r="51" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+    </row>
+    <row r="52" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+    </row>
+    <row r="53" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="83"/>
+      <c r="J53" s="83"/>
+    </row>
+    <row r="54" spans="5:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="E54" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="G54" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="H54" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="I54" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="J54" s="84" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E55" s="67">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="F55" s="67">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="G55" s="79">
+        <v>0.16</v>
+      </c>
+      <c r="H55" s="80">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="I55" s="80">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="J55" s="67">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E56" s="70">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="F56" s="70">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="G56" s="70">
+        <v>0.16</v>
+      </c>
+      <c r="H56" s="76">
+        <v>0.13</v>
+      </c>
+      <c r="I56" s="76">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="J56" s="70">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E57" s="55">
+        <v>0.04</v>
+      </c>
+      <c r="F57" s="55">
+        <v>0.04</v>
+      </c>
+      <c r="G57" s="56">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H57" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I57" s="55">
+        <v>0.04</v>
+      </c>
+      <c r="J57" s="55">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="58" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E58" s="64">
+        <v>73174</v>
+      </c>
+      <c r="F58" s="71">
+        <v>71482</v>
+      </c>
+      <c r="G58" s="64">
+        <v>73083</v>
+      </c>
+      <c r="H58" s="81">
+        <v>80760</v>
+      </c>
+      <c r="I58" s="71">
+        <v>71054</v>
+      </c>
+      <c r="J58" s="64">
+        <v>76935</v>
+      </c>
+    </row>
+    <row r="59" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="82"/>
+      <c r="I59" s="82"/>
+      <c r="J59" s="82"/>
+    </row>
+    <row r="60" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="83"/>
+      <c r="J60" s="83"/>
+    </row>
+    <row r="61" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="83"/>
+      <c r="J61" s="83"/>
+    </row>
+    <row r="62" spans="5:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="E62" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="F62" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="G62" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="H62" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="I62" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="J62" s="84" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E63" s="72">
+        <v>0.191</v>
+      </c>
+      <c r="F63" s="60">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="G63" s="66">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="H63" s="47">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="I63" s="60">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="J63" s="48">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E64" s="74">
+        <v>0.193</v>
+      </c>
+      <c r="F64" s="52">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="G64" s="69">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="H64" s="61">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="I64" s="52">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="J64" s="52">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E65" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F65" s="55">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G65" s="56">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H65" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I65" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J65" s="55">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="66" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E66" s="71">
+        <v>72139</v>
+      </c>
+      <c r="F66" s="57">
+        <v>35129</v>
+      </c>
+      <c r="G66" s="77">
+        <v>45187</v>
+      </c>
+      <c r="H66" s="59">
+        <v>38544</v>
+      </c>
+      <c r="I66" s="57">
+        <v>34431</v>
+      </c>
+      <c r="J66" s="57">
+        <v>35123</v>
+      </c>
+    </row>
+    <row r="70" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E70" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H70" s="41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E71" s="47">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="F71" s="60">
+        <v>0.308</v>
+      </c>
+      <c r="G71" s="65">
+        <v>0.25</v>
+      </c>
+      <c r="H71" s="66">
+        <v>0.223</v>
+      </c>
+      <c r="I71" s="66">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="J71" s="65">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E72" s="51">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="F72" s="61">
+        <v>0.311</v>
+      </c>
+      <c r="G72" s="68">
+        <v>0.252</v>
+      </c>
+      <c r="H72" s="69">
+        <v>0.224</v>
+      </c>
+      <c r="I72" s="69">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="J72" s="68">
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E73" s="55">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F73" s="55">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G73" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H73" s="55">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I73" s="55">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J73" s="55">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="74" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E74" s="57">
+        <v>33619</v>
+      </c>
+      <c r="F74" s="63">
+        <v>29296</v>
+      </c>
+      <c r="G74" s="77">
+        <v>42318</v>
+      </c>
+      <c r="H74" s="77">
+        <v>46214</v>
+      </c>
+      <c r="I74" s="78">
+        <v>48597</v>
+      </c>
+      <c r="J74" s="77">
+        <v>48167</v>
+      </c>
+    </row>
+    <row r="75" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E75" s="82"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="82"/>
+      <c r="H75" s="82"/>
+      <c r="I75" s="82"/>
+      <c r="J75" s="82"/>
+    </row>
+    <row r="76" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="83"/>
+      <c r="H76" s="83"/>
+      <c r="I76" s="83"/>
+      <c r="J76" s="83"/>
+    </row>
+    <row r="77" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E77" s="83"/>
+      <c r="F77" s="83"/>
+      <c r="G77" s="83"/>
+      <c r="H77" s="83"/>
+      <c r="I77" s="83"/>
+      <c r="J77" s="83"/>
+    </row>
+    <row r="78" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E78" s="84"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="84"/>
+      <c r="H78" s="84"/>
+      <c r="I78" s="84"/>
+      <c r="J78" s="84"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5B6B2A-22BB-234A-99B7-8736E7874F4B}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -6908,156 +9354,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F902425A-80F3-0944-83D1-0F01CA2A06A3}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1">
-        <v>24.321329639889193</v>
-      </c>
-      <c r="C1">
-        <v>3.8634467305509022</v>
-      </c>
-      <c r="D1">
-        <f t="shared" ref="D1:D5" si="0">AVERAGE(F1:H1)</f>
-        <v>57.650000000000006</v>
-      </c>
-      <c r="E1">
-        <f t="shared" ref="E1:E5" si="1">STDEV(F1:H1)</f>
-        <v>0.30805843601499044</v>
-      </c>
-      <c r="F1">
-        <v>57.3</v>
-      </c>
-      <c r="G1" s="41">
-        <v>57.88</v>
-      </c>
-      <c r="H1" s="41">
-        <v>57.77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2">
-        <v>93.074792243767305</v>
-      </c>
-      <c r="C2">
-        <v>3.4704619974217956</v>
-      </c>
-      <c r="D2">
-        <f t="shared" si="0"/>
-        <v>0.21666666666666667</v>
-      </c>
-      <c r="E2">
-        <f t="shared" si="1"/>
-        <v>7.5055534994651382E-2</v>
-      </c>
-      <c r="F2">
-        <v>0.22</v>
-      </c>
-      <c r="G2" s="41">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H2" s="41">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3">
-        <v>24.321329639889196</v>
-      </c>
-      <c r="C3">
-        <v>3.066170438121147</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>52.126666666666665</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="1"/>
-        <v>6.658328118479527E-2</v>
-      </c>
-      <c r="F3">
-        <v>52.16</v>
-      </c>
-      <c r="G3" s="41">
-        <v>52.05</v>
-      </c>
-      <c r="H3" s="41">
-        <v>52.17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4">
-        <v>27.922437673130197</v>
-      </c>
-      <c r="C4">
-        <v>2.912146615169291</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>44.22</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>0.59101607423148805</v>
-      </c>
-      <c r="F4">
-        <v>43.83</v>
-      </c>
-      <c r="G4" s="41">
-        <v>43.93</v>
-      </c>
-      <c r="H4" s="41">
-        <v>44.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5">
-        <v>39.00277008310249</v>
-      </c>
-      <c r="C5">
-        <v>3.0661704381211563</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>32.884999999999998</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.5868986283848332</v>
-      </c>
-      <c r="F5">
-        <v>32.47</v>
-      </c>
-      <c r="G5" s="41">
-        <v>33.299999999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/CCK8-Transfection_Plots/20231211_CCK8-Transfection_DIPLibrary_reducedserum.xlsx
+++ b/CCK8-Transfection_Plots/20231211_CCK8-Transfection_DIPLibrary_reducedserum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/CCK8-Transfection_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB63194B-D073-154B-B33D-7B2B57C84DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B499A098-E2EA-894D-804D-6F4E15F75DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15980" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="16000" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,17 @@
     <sheet name="DIPPolyplexesCalcs1" sheetId="4" r:id="rId3"/>
     <sheet name="DIPPolyplexes-NP5" sheetId="5" r:id="rId4"/>
     <sheet name="combined" sheetId="9" r:id="rId5"/>
-    <sheet name="DIPPolyplexes-NP7" sheetId="8" r:id="rId6"/>
-    <sheet name="DIPPolyplexesCalcs2" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet4" sheetId="12" r:id="rId8"/>
-    <sheet name="PolymerOnly" sheetId="3" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId10"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId11"/>
-    <sheet name="Sheet3" sheetId="11" r:id="rId12"/>
+    <sheet name="s-pareto" sheetId="13" r:id="rId6"/>
+    <sheet name="b-pareto" sheetId="14" r:id="rId7"/>
+    <sheet name="g1-pareto" sheetId="15" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="16" r:id="rId9"/>
+    <sheet name="Sheet9" sheetId="17" r:id="rId10"/>
+    <sheet name="DIPPolyplexes-NP7" sheetId="8" r:id="rId11"/>
+    <sheet name="DIPPolyplexesCalcs2" sheetId="6" r:id="rId12"/>
+    <sheet name="Sheet4" sheetId="12" r:id="rId13"/>
+    <sheet name="PolymerOnly" sheetId="3" r:id="rId14"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId15"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="MethodPointer1">1759294816</definedName>
@@ -48,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="130">
   <si>
     <t>Software Version</t>
   </si>
@@ -2948,150 +2952,98 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F902425A-80F3-0944-83D1-0F01CA2A06A3}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2664474-92ED-144D-BB16-943DA42A8353}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1">
-        <v>24.321329639889193</v>
-      </c>
-      <c r="C1">
-        <v>3.8634467305509022</v>
-      </c>
-      <c r="D1">
-        <f t="shared" ref="D1:D5" si="0">AVERAGE(F1:H1)</f>
-        <v>57.650000000000006</v>
-      </c>
-      <c r="E1">
-        <f t="shared" ref="E1:E5" si="1">STDEV(F1:H1)</f>
-        <v>0.30805843601499044</v>
-      </c>
-      <c r="F1">
-        <v>57.3</v>
-      </c>
-      <c r="G1" s="41">
-        <v>57.88</v>
-      </c>
-      <c r="H1" s="41">
-        <v>57.77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="41" t="s">
-        <v>93</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>99</v>
       </c>
       <c r="B2">
-        <v>93.074792243767305</v>
+        <v>87.266251113089936</v>
       </c>
       <c r="C2">
-        <v>3.4704619974217956</v>
+        <v>1.7559422921421231</v>
       </c>
       <c r="D2">
-        <f t="shared" si="0"/>
-        <v>0.21666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <f t="shared" si="1"/>
-        <v>7.5055534994651382E-2</v>
-      </c>
-      <c r="F2">
-        <v>0.22</v>
-      </c>
-      <c r="G2" s="41">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H2" s="41">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="41" t="s">
-        <v>94</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>99</v>
       </c>
       <c r="B3">
-        <v>24.321329639889196</v>
+        <v>53.019390581717452</v>
       </c>
       <c r="C3">
-        <v>3.066170438121147</v>
+        <v>2.912146615169291</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
-        <v>52.126666666666665</v>
+        <v>24.756666666666671</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
-        <v>6.658328118479527E-2</v>
-      </c>
-      <c r="F3">
-        <v>52.16</v>
-      </c>
-      <c r="G3" s="41">
-        <v>52.05</v>
-      </c>
-      <c r="H3" s="41">
-        <v>52.17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
-        <v>95</v>
+        <v>0.49074772881118062</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>99</v>
       </c>
       <c r="B4">
-        <v>27.922437673130197</v>
+        <v>39.00277008310249</v>
       </c>
       <c r="C4">
-        <v>2.912146615169291</v>
+        <v>3.0661704381211563</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>44.22</v>
+        <v>32.884999999999998</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
-        <v>0.59101607423148805</v>
-      </c>
-      <c r="F4">
-        <v>43.83</v>
-      </c>
-      <c r="G4" s="41">
-        <v>43.93</v>
-      </c>
-      <c r="H4" s="41">
-        <v>44.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="41" t="s">
-        <v>96</v>
+        <v>0.5868986283848332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>99</v>
       </c>
       <c r="B5">
-        <v>39.00277008310249</v>
+        <v>54.229741763134456</v>
       </c>
       <c r="C5">
-        <v>3.0661704381211563</v>
+        <v>5.2848841046895201</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>32.884999999999998</v>
+        <v>24.883333333333329</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.5868986283848332</v>
-      </c>
-      <c r="F5">
-        <v>32.47</v>
-      </c>
-      <c r="G5" s="41">
-        <v>33.299999999999997</v>
+        <v>19.485133649357746</v>
       </c>
     </row>
   </sheetData>
@@ -3100,11 +3052,2880 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36B19B9-AB9C-914F-8B00-CEB726A542CE}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>4.8562229493959439</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(F2:H2)</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="E2">
+        <f>STDEV(F2:H2)</f>
+        <v>5.773502691896258E-3</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.01</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>73.344947735191653</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="0">AVERAGE(F3:H3)</f>
+        <v>0.19000000000000003</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="1">STDEV(F3:H3)</f>
+        <v>4.5825756949558372E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.2</v>
+      </c>
+      <c r="G3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4">
+        <v>91.114982578397218</v>
+      </c>
+      <c r="C4">
+        <v>2.1194294530655773</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>61.753333333333337</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>4.9677895822320517</v>
+      </c>
+      <c r="F4">
+        <v>64.78</v>
+      </c>
+      <c r="G4">
+        <v>64.459999999999994</v>
+      </c>
+      <c r="H4">
+        <v>56.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5">
+        <v>58.536585365853668</v>
+      </c>
+      <c r="C5">
+        <v>9.9226695929604247</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>58.93</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>2.3766362784406025</v>
+      </c>
+      <c r="F5">
+        <v>56.35</v>
+      </c>
+      <c r="G5">
+        <v>61.03</v>
+      </c>
+      <c r="H5">
+        <v>59.41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6">
+        <v>24.321329639889193</v>
+      </c>
+      <c r="C6">
+        <v>3.8634467305509022</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>57.650000000000006</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.30805843601499044</v>
+      </c>
+      <c r="F6">
+        <v>57.3</v>
+      </c>
+      <c r="G6" s="41">
+        <v>57.88</v>
+      </c>
+      <c r="H6" s="41">
+        <v>57.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>93.074792243767305</v>
+      </c>
+      <c r="C7">
+        <v>3.4704619974217956</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>7.5055534994651382E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.22</v>
+      </c>
+      <c r="G7" s="41">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H7" s="41">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>24.321329639889196</v>
+      </c>
+      <c r="C8">
+        <v>3.066170438121147</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>52.126666666666665</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>6.658328118479527E-2</v>
+      </c>
+      <c r="F8">
+        <v>52.16</v>
+      </c>
+      <c r="G8" s="41">
+        <v>52.05</v>
+      </c>
+      <c r="H8" s="41">
+        <v>52.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9">
+        <v>27.922437673130197</v>
+      </c>
+      <c r="C9">
+        <v>2.912146615169291</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>44.22</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.59101607423148805</v>
+      </c>
+      <c r="F9">
+        <v>43.83</v>
+      </c>
+      <c r="G9" s="41">
+        <v>43.93</v>
+      </c>
+      <c r="H9" s="41">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10">
+        <v>39.00277008310249</v>
+      </c>
+      <c r="C10">
+        <v>3.0661704381211563</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>32.884999999999998</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.5868986283848332</v>
+      </c>
+      <c r="F10">
+        <v>32.47</v>
+      </c>
+      <c r="G10" s="41">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAECD63-FBB9-5A47-9DD1-E0DC50D9BA33}">
+  <dimension ref="B1:O28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24:L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C1" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B2" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="26">
+        <v>0.189</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="E2" s="26">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F2" s="27">
+        <v>0.36</v>
+      </c>
+      <c r="G2" s="27">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="H2" s="34">
+        <v>0.376</v>
+      </c>
+      <c r="I2" s="25">
+        <v>0.16</v>
+      </c>
+      <c r="J2" s="26">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="K2" s="26">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B3" s="86"/>
+      <c r="C3" s="29">
+        <v>0.19</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0.26</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F3" s="30">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="G3" s="30">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="H3" s="35">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="I3" s="17">
+        <v>0.16</v>
+      </c>
+      <c r="J3" s="29">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="K3" s="29">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0.626</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0.62</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B4" s="86"/>
+      <c r="C4" s="18">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D4" s="18">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E4" s="18">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="G4" s="18">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="J4" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="L4" s="18">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="M4" s="18">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="N4" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="24" x14ac:dyDescent="0.15">
+      <c r="B5" s="87"/>
+      <c r="C5" s="40">
+        <v>73882</v>
+      </c>
+      <c r="D5" s="22">
+        <v>52708</v>
+      </c>
+      <c r="E5" s="37">
+        <v>54438</v>
+      </c>
+      <c r="F5" s="21">
+        <v>40739</v>
+      </c>
+      <c r="G5" s="21">
+        <v>37220</v>
+      </c>
+      <c r="H5" s="21">
+        <v>40807</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="37">
+        <v>56486</v>
+      </c>
+      <c r="K5" s="37">
+        <v>58320</v>
+      </c>
+      <c r="L5" s="24">
+        <v>22511</v>
+      </c>
+      <c r="M5" s="24">
+        <v>19304</v>
+      </c>
+      <c r="N5" s="24">
+        <v>19145</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B6" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0.191</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0.192</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="L6" s="28">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="N6" s="28">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B7" s="86"/>
+      <c r="C7" s="17">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D7" s="29">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="E7" s="29">
+        <v>0.191</v>
+      </c>
+      <c r="F7" s="29">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="G7" s="29">
+        <v>0.193</v>
+      </c>
+      <c r="H7" s="29">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0.67</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B8" s="86"/>
+      <c r="C8" s="18">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D8" s="18">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="G8" s="18">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H8" s="18">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="J8" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="K8" s="18">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="L8" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="M8" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="N8" s="18">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="24" x14ac:dyDescent="0.15">
+      <c r="B9" s="87"/>
+      <c r="C9" s="38">
+        <v>63464</v>
+      </c>
+      <c r="D9" s="37">
+        <v>59557</v>
+      </c>
+      <c r="E9" s="38">
+        <v>64421</v>
+      </c>
+      <c r="F9" s="37">
+        <v>54484</v>
+      </c>
+      <c r="G9" s="37">
+        <v>56049</v>
+      </c>
+      <c r="H9" s="37">
+        <v>56614</v>
+      </c>
+      <c r="I9" s="37">
+        <v>56125</v>
+      </c>
+      <c r="J9" s="22">
+        <v>53241</v>
+      </c>
+      <c r="K9" s="37">
+        <v>55790</v>
+      </c>
+      <c r="L9" s="24">
+        <v>18425</v>
+      </c>
+      <c r="M9" s="24">
+        <v>19788</v>
+      </c>
+      <c r="N9" s="24">
+        <v>18482</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C10" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C12" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C13">
+        <f>C2-C4</f>
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:N13" si="0">D2-D4</f>
+        <v>0.219</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.19899999999999998</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.30100000000000005</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0.16399999999999998</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0.155</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>0.53599999999999992</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C14">
+        <f>C13/$D$21</f>
+        <v>0.24432132963988917</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:N14" si="1">D13/$D$21</f>
+        <v>0.36398891966759001</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.33074792243767309</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.53185595567867039</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.50027700831024935</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0.55844875346260392</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0.19944598337950137</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0.27257617728531852</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>0.25761772853185594</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>0.95401662049861491</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>0.89085872576177272</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>0.94736842105263153</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C16" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C17">
+        <f>C6-C8</f>
+        <v>0.126</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:N17" si="2">D6-D8</f>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>0.151</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0.16699999999999998</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>0.151</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.186</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0.255</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0.219</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>0.23</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C18">
+        <f>C17/$D$21</f>
+        <v>0.20941828254847644</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:N18" si="3">D17/$D$21</f>
+        <v>0.26925207756232689</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>0.25096952908587256</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>0.27756232686980603</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>0.25096952908587256</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>0.30914127423822713</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0.42382271468144045</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>0.36398891966759001</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>0.38227146814404434</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>1.027146814404432</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>0.94238227146814391</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>1.0304709141274238</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D20" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C21" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="41">
+        <f>AVERAGE(L17:N17)</f>
+        <v>0.60166666666666668</v>
+      </c>
+      <c r="F21">
+        <f>D21/D$21</f>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f>F21*100</f>
+        <v>100</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21">
+        <f>C14*100</f>
+        <v>24.432132963988916</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21:K21" si="4">D14*100</f>
+        <v>36.398891966759003</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>33.074792243767313</v>
+      </c>
+      <c r="L21">
+        <f>STDEV(I21:K21)</f>
+        <v>6.1772232087607311</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C22" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22">
+        <f>AVERAGE(C13:E13)</f>
+        <v>0.18833333333333332</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:F28" si="5">D22/D$21</f>
+        <v>0.3130193905817174</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22:G28" si="6">F22*100</f>
+        <v>31.30193905817174</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22">
+        <f>F14*100</f>
+        <v>53.18559556786704</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22:K22" si="7">G14*100</f>
+        <v>50.027700831024937</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="7"/>
+        <v>55.844875346260395</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22:L28" si="8">STDEV(I22:K22)</f>
+        <v>2.912146615169291</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C23" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23">
+        <f>AVERAGE(F13:H13)</f>
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="5"/>
+        <v>0.53019390581717452</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>53.019390581717452</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23">
+        <f>I14*100</f>
+        <v>19.944598337950136</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23:K23" si="9">J14*100</f>
+        <v>27.257617728531851</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="9"/>
+        <v>25.761772853185594</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="8"/>
+        <v>3.8634467305509022</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C24" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24">
+        <f>AVERAGE(I13:K13)</f>
+        <v>0.14633333333333332</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="5"/>
+        <v>0.24321329639889194</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="6"/>
+        <v>24.321329639889193</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24">
+        <f>L14*100</f>
+        <v>95.401662049861486</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24:K24" si="10">M14*100</f>
+        <v>89.085872576177266</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="10"/>
+        <v>94.73684210526315</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="8"/>
+        <v>3.4704619974217956</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C25" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25">
+        <f>AVERAGE(L13:N13)</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="5"/>
+        <v>0.93074792243767301</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>93.074792243767305</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25">
+        <f>C18*100</f>
+        <v>20.941828254847643</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25:K25" si="11">D18*100</f>
+        <v>26.925207756232687</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="11"/>
+        <v>25.096952908587255</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="8"/>
+        <v>3.066170438121147</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C26" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26">
+        <f>AVERAGE(C17:E17)</f>
+        <v>0.14633333333333334</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="5"/>
+        <v>0.24321329639889197</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="6"/>
+        <v>24.321329639889196</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26">
+        <f>F18*100</f>
+        <v>27.756232686980603</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26:K26" si="12">G18*100</f>
+        <v>25.096952908587255</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="12"/>
+        <v>30.914127423822713</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="8"/>
+        <v>2.912146615169291</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C27" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27">
+        <f>AVERAGE(F17:H17)</f>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="5"/>
+        <v>0.27922437673130196</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="6"/>
+        <v>27.922437673130197</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27">
+        <f>I18*100</f>
+        <v>42.382271468144047</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ref="J27:K27" si="13">J18*100</f>
+        <v>36.398891966759003</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="13"/>
+        <v>38.227146814404435</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="8"/>
+        <v>3.0661704381211563</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C28" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28">
+        <f>AVERAGE(I17:K17)</f>
+        <v>0.23466666666666666</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="5"/>
+        <v>0.39002770083102489</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="6"/>
+        <v>39.00277008310249</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28">
+        <f>L18*100</f>
+        <v>102.7146814404432</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ref="J28:K28" si="14">M18*100</f>
+        <v>94.238227146814395</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="14"/>
+        <v>103.04709141274238</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="8"/>
+        <v>4.9926089278252945</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C058FAC-84B6-B94F-AD70-5B288E54D629}">
+  <dimension ref="E7:X78"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22:X33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="7" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E7" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E8" s="73">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="F8" s="73">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="G8" s="50">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="H8" s="73">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="I8" s="73">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="J8" s="49">
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E9" s="75">
+        <v>0.434</v>
+      </c>
+      <c r="F9" s="75">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="G9" s="54">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="H9" s="75">
+        <v>0.438</v>
+      </c>
+      <c r="I9" s="75">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="J9" s="53">
+        <v>0.39300000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E10" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F10" s="55">
+        <v>0.04</v>
+      </c>
+      <c r="G10" s="56">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H10" s="62">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I10" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J10" s="55">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E11" s="57">
+        <v>31703</v>
+      </c>
+      <c r="F11" s="63">
+        <v>28955</v>
+      </c>
+      <c r="G11" s="77">
+        <v>42294</v>
+      </c>
+      <c r="H11" s="57">
+        <v>30570</v>
+      </c>
+      <c r="I11" s="57">
+        <v>30527</v>
+      </c>
+      <c r="J11" s="63">
+        <v>29707</v>
+      </c>
+    </row>
+    <row r="12" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="N12">
+        <f>H9-H10</f>
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ref="O12:P12" si="0">I9-I10</f>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>0.35400000000000004</v>
+      </c>
+      <c r="Q12">
+        <f>AVERAGE(N12:P12)</f>
+        <v>0.37433333333333335</v>
+      </c>
+    </row>
+    <row r="13" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+    </row>
+    <row r="14" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+    </row>
+    <row r="15" spans="5:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="E15" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E16" s="47">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="F16" s="49">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="G16" s="50">
+        <v>0.36</v>
+      </c>
+      <c r="H16" s="50">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="I16" s="48">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="J16" s="60">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="17" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E17" s="51">
+        <v>0.35</v>
+      </c>
+      <c r="F17" s="53">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="G17" s="54">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="H17" s="54">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="I17" s="52">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="J17" s="61">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="18" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E18" s="55">
+        <v>0.04</v>
+      </c>
+      <c r="F18" s="55">
+        <v>0.04</v>
+      </c>
+      <c r="G18" s="56">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H18" s="68">
+        <v>0.06</v>
+      </c>
+      <c r="I18" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J18" s="55">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E19" s="57">
+        <v>32581</v>
+      </c>
+      <c r="F19" s="63">
+        <v>29104</v>
+      </c>
+      <c r="G19" s="57">
+        <v>30443</v>
+      </c>
+      <c r="H19" s="78">
+        <v>49382</v>
+      </c>
+      <c r="I19" s="59">
+        <v>41996</v>
+      </c>
+      <c r="J19" s="77">
+        <v>46907</v>
+      </c>
+    </row>
+    <row r="20" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+    </row>
+    <row r="21" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="Q21" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="R21" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="S21" s="41"/>
+      <c r="X21" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="M22" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="N22">
+        <f>H25-H26</f>
+        <v>0.3</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ref="O22:P22" si="1">I25-I26</f>
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="Q22">
+        <f>AVERAGE(N22:P22)</f>
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="R22">
+        <f>Q22/Q$12*100</f>
+        <v>81.211041852181651</v>
+      </c>
+      <c r="S22">
+        <f>Q22/Q$12</f>
+        <v>0.81211041852181653</v>
+      </c>
+      <c r="U22">
+        <f>N22*100</f>
+        <v>30</v>
+      </c>
+      <c r="V22">
+        <f t="shared" ref="V22:W26" si="2">O22*100</f>
+        <v>27.900000000000002</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="2"/>
+        <v>33.300000000000004</v>
+      </c>
+      <c r="X22">
+        <f>STDEV(U22:W22)</f>
+        <v>2.7221315177632412</v>
+      </c>
+    </row>
+    <row r="23" spans="5:24" ht="14" x14ac:dyDescent="0.15">
+      <c r="E23" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="J23" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="M23" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="N23">
+        <f>E33-E34</f>
+        <v>0.318</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ref="O23:P23" si="3">F33-F34</f>
+        <v>0.34400000000000003</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" ref="Q23:Q33" si="4">AVERAGE(N23:P23)</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="R23">
+        <f t="shared" ref="R23:R33" si="5">Q23/Q$12*100</f>
+        <v>86.553873552983092</v>
+      </c>
+      <c r="S23">
+        <f t="shared" ref="S23:S33" si="6">Q23/Q$12</f>
+        <v>0.86553873552983085</v>
+      </c>
+      <c r="U23">
+        <f t="shared" ref="U23:U33" si="7">N23*100</f>
+        <v>31.8</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="2"/>
+        <v>34.400000000000006</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="X23">
+        <f t="shared" ref="X23:X33" si="8">STDEV(U23:W23)</f>
+        <v>1.7776388834631207</v>
+      </c>
+    </row>
+    <row r="24" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E24" s="66">
+        <v>0.214</v>
+      </c>
+      <c r="F24" s="65">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="G24" s="65">
+        <v>0.255</v>
+      </c>
+      <c r="H24" s="47">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="I24" s="60">
+        <v>0.32</v>
+      </c>
+      <c r="J24" s="49">
+        <v>0.378</v>
+      </c>
+      <c r="M24" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="N24">
+        <f>H33-H34</f>
+        <v>0.29100000000000004</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ref="O24:P24" si="9">I33-I34</f>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="9"/>
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="4"/>
+        <v>0.29533333333333339</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="5"/>
+        <v>78.895814781834389</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="6"/>
+        <v>0.78895814781834384</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="7"/>
+        <v>29.100000000000005</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="2"/>
+        <v>27.6</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="2"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="8"/>
+        <v>2.1825062046494468</v>
+      </c>
+    </row>
+    <row r="25" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E25" s="74">
+        <v>0.215</v>
+      </c>
+      <c r="F25" s="69">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="G25" s="68">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="H25" s="51">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="I25" s="61">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="J25" s="54">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="M25" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="N25">
+        <f>E40-E41</f>
+        <v>0.311</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ref="O25:P25" si="10">F40-F41</f>
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="10"/>
+        <v>0.307</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="4"/>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="5"/>
+        <v>84.594835262689216</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="6"/>
+        <v>0.84594835262689216</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="7"/>
+        <v>31.1</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="2"/>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="2"/>
+        <v>30.7</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="8"/>
+        <v>1.3428824718989139</v>
+      </c>
+    </row>
+    <row r="26" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E26" s="76">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F26" s="55">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G26" s="68">
+        <v>0.06</v>
+      </c>
+      <c r="H26" s="76">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="I26" s="56">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J26" s="70">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="M26" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="N26">
+        <f>H40-H41</f>
+        <v>0.31</v>
+      </c>
+      <c r="O26">
+        <f t="shared" ref="O26:P26" si="11">I40-I41</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="11"/>
+        <v>0.34500000000000003</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="4"/>
+        <v>0.32666666666666666</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="5"/>
+        <v>87.266251113089936</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="6"/>
+        <v>0.87266251113089932</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="2"/>
+        <v>32.5</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="2"/>
+        <v>34.5</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="8"/>
+        <v>1.7559422921421231</v>
+      </c>
+    </row>
+    <row r="27" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E27" s="64">
+        <v>77385</v>
+      </c>
+      <c r="F27" s="77">
+        <v>48186</v>
+      </c>
+      <c r="G27" s="77">
+        <v>48302</v>
+      </c>
+      <c r="H27" s="59">
+        <v>38245</v>
+      </c>
+      <c r="I27" s="59">
+        <v>39250</v>
+      </c>
+      <c r="J27" s="57">
+        <v>31606</v>
+      </c>
+    </row>
+    <row r="28" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+    </row>
+    <row r="29" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="M29" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="N29">
+        <f>E48-E49</f>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ref="O29:P29" si="12">F48-F49</f>
+        <v>9.4E-2</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="12"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>9.7333333333333327E-2</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="5"/>
+        <v>26.001780943900265</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="6"/>
+        <v>0.26001780943900266</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="7"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="V29">
+        <f t="shared" ref="V29:V33" si="13">O29*100</f>
+        <v>9.4</v>
+      </c>
+      <c r="W29">
+        <f t="shared" ref="W29:W33" si="14">P29*100</f>
+        <v>10</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="8"/>
+        <v>0.30550504633038922</v>
+      </c>
+    </row>
+    <row r="30" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="M30" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="N30">
+        <f>H48-H49</f>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ref="O30:P30" si="15">I48-I49</f>
+        <v>0.29200000000000004</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="15"/>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="4"/>
+        <v>0.317</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="5"/>
+        <v>84.68388245770258</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="6"/>
+        <v>0.84683882457702575</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="7"/>
+        <v>33.5</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="13"/>
+        <v>29.200000000000003</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="14"/>
+        <v>32.4</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="8"/>
+        <v>2.2338307903688657</v>
+      </c>
+    </row>
+    <row r="31" spans="5:24" ht="14" x14ac:dyDescent="0.15">
+      <c r="E31" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="J31" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="M31" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="N31">
+        <f>E56-E57</f>
+        <v>0.10799999999999998</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ref="O31:P31" si="16">F56-F57</f>
+        <v>0.10599999999999998</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="16"/>
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="4"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="5"/>
+        <v>29.385574354407829</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="6"/>
+        <v>0.29385574354407829</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="7"/>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="13"/>
+        <v>10.599999999999998</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="14"/>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="8"/>
+        <v>0.52915026221291994</v>
+      </c>
+    </row>
+    <row r="32" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E32" s="50">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="F32" s="49">
+        <v>0.378</v>
+      </c>
+      <c r="G32" s="47">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="H32" s="47">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="I32" s="60">
+        <v>0.316</v>
+      </c>
+      <c r="J32" s="50">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="M32" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="N32">
+        <f>H56-H57</f>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ref="O32:P32" si="17">I56-I57</f>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="17"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="4"/>
+        <v>9.3666666666666676E-2</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="5"/>
+        <v>25.022261798753341</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="6"/>
+        <v>0.25022261798753342</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="7"/>
+        <v>9.1</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="13"/>
+        <v>9.1</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="14"/>
+        <v>9.9</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="8"/>
+        <v>0.46188021535170104</v>
+      </c>
+    </row>
+    <row r="33" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E33" s="54">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="F33" s="53">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="G33" s="51">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="H33" s="51">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="I33" s="61">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="J33" s="54">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="M33" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="N33">
+        <f>E64-E65</f>
+        <v>0.154</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ref="O33:P33" si="18">F64-F65</f>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="18"/>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="4"/>
+        <v>0.20299999999999999</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="5"/>
+        <v>54.229741763134456</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="6"/>
+        <v>0.54229741763134454</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="7"/>
+        <v>15.4</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="13"/>
+        <v>25.900000000000002</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="14"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="8"/>
+        <v>5.2848841046895201</v>
+      </c>
+    </row>
+    <row r="34" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E34" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F34" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G34" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H34" s="56">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="I34" s="56">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J34" s="76">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E35" s="57">
+        <v>31992</v>
+      </c>
+      <c r="F35" s="57">
+        <v>31280</v>
+      </c>
+      <c r="G35" s="57">
+        <v>31514</v>
+      </c>
+      <c r="H35" s="57">
+        <v>32137</v>
+      </c>
+      <c r="I35" s="57">
+        <v>32959</v>
+      </c>
+      <c r="J35" s="59">
+        <v>39826</v>
+      </c>
+    </row>
+    <row r="38" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E38" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="J38" s="41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E39" s="50">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="F39" s="50">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="G39" s="47">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="H39" s="50">
+        <v>0.35</v>
+      </c>
+      <c r="I39" s="50">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="J39" s="49">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="40" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E40" s="51">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F40" s="54">
+        <v>0.371</v>
+      </c>
+      <c r="G40" s="51">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="H40" s="51">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I40" s="54">
+        <v>0.373</v>
+      </c>
+      <c r="J40" s="53">
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E41" s="55">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F41" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G41" s="55">
+        <v>0.04</v>
+      </c>
+      <c r="H41" s="56">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="I41" s="70">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J41" s="55">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E42" s="57">
+        <v>31527</v>
+      </c>
+      <c r="F42" s="57">
+        <v>31117</v>
+      </c>
+      <c r="G42" s="57">
+        <v>32196</v>
+      </c>
+      <c r="H42" s="57">
+        <v>32642</v>
+      </c>
+      <c r="I42" s="63">
+        <v>29777</v>
+      </c>
+      <c r="J42" s="63">
+        <v>29506</v>
+      </c>
+    </row>
+    <row r="43" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+    </row>
+    <row r="44" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="83"/>
+    </row>
+    <row r="45" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+    </row>
+    <row r="46" spans="5:24" ht="14" x14ac:dyDescent="0.15">
+      <c r="E46" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="G46" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="I46" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="J46" s="84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E47" s="67">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="F47" s="67">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G47" s="67">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="H47" s="50">
+        <v>0.371</v>
+      </c>
+      <c r="I47" s="47">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="J47" s="50">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="5:24" x14ac:dyDescent="0.15">
+      <c r="E48" s="70">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F48" s="76">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G48" s="70">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="H48" s="54">
+        <v>0.376</v>
+      </c>
+      <c r="I48" s="51">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="J48" s="54">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E49" s="55">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F49" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G49" s="56">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H49" s="55">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="I49" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J49" s="55">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="50" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E50" s="58">
+        <v>97436</v>
+      </c>
+      <c r="F50" s="64">
+        <v>75163</v>
+      </c>
+      <c r="G50" s="64">
+        <v>76244</v>
+      </c>
+      <c r="H50" s="57">
+        <v>33675</v>
+      </c>
+      <c r="I50" s="57">
+        <v>33346</v>
+      </c>
+      <c r="J50" s="63">
+        <v>28264</v>
+      </c>
+    </row>
+    <row r="51" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+    </row>
+    <row r="52" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+    </row>
+    <row r="53" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="83"/>
+      <c r="J53" s="83"/>
+    </row>
+    <row r="54" spans="5:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="E54" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="G54" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="H54" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="I54" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="J54" s="84" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E55" s="67">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="F55" s="67">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="G55" s="79">
+        <v>0.16</v>
+      </c>
+      <c r="H55" s="80">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="I55" s="80">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="J55" s="67">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E56" s="70">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="F56" s="70">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="G56" s="70">
+        <v>0.16</v>
+      </c>
+      <c r="H56" s="76">
+        <v>0.13</v>
+      </c>
+      <c r="I56" s="76">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="J56" s="70">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E57" s="55">
+        <v>0.04</v>
+      </c>
+      <c r="F57" s="55">
+        <v>0.04</v>
+      </c>
+      <c r="G57" s="56">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H57" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I57" s="55">
+        <v>0.04</v>
+      </c>
+      <c r="J57" s="55">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="58" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E58" s="64">
+        <v>73174</v>
+      </c>
+      <c r="F58" s="71">
+        <v>71482</v>
+      </c>
+      <c r="G58" s="64">
+        <v>73083</v>
+      </c>
+      <c r="H58" s="81">
+        <v>80760</v>
+      </c>
+      <c r="I58" s="71">
+        <v>71054</v>
+      </c>
+      <c r="J58" s="64">
+        <v>76935</v>
+      </c>
+    </row>
+    <row r="59" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="82"/>
+      <c r="I59" s="82"/>
+      <c r="J59" s="82"/>
+    </row>
+    <row r="60" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="83"/>
+      <c r="J60" s="83"/>
+    </row>
+    <row r="61" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="83"/>
+      <c r="J61" s="83"/>
+    </row>
+    <row r="62" spans="5:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="E62" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="F62" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="G62" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="H62" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="I62" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="J62" s="84" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E63" s="72">
+        <v>0.191</v>
+      </c>
+      <c r="F63" s="60">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="G63" s="66">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="H63" s="47">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="I63" s="60">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="J63" s="48">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E64" s="74">
+        <v>0.193</v>
+      </c>
+      <c r="F64" s="52">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="G64" s="69">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="H64" s="61">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="I64" s="52">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="J64" s="52">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E65" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F65" s="55">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G65" s="56">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H65" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I65" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J65" s="55">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="66" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E66" s="71">
+        <v>72139</v>
+      </c>
+      <c r="F66" s="57">
+        <v>35129</v>
+      </c>
+      <c r="G66" s="77">
+        <v>45187</v>
+      </c>
+      <c r="H66" s="59">
+        <v>38544</v>
+      </c>
+      <c r="I66" s="57">
+        <v>34431</v>
+      </c>
+      <c r="J66" s="57">
+        <v>35123</v>
+      </c>
+    </row>
+    <row r="70" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E70" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H70" s="41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E71" s="47">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="F71" s="60">
+        <v>0.308</v>
+      </c>
+      <c r="G71" s="65">
+        <v>0.25</v>
+      </c>
+      <c r="H71" s="66">
+        <v>0.223</v>
+      </c>
+      <c r="I71" s="66">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="J71" s="65">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E72" s="51">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="F72" s="61">
+        <v>0.311</v>
+      </c>
+      <c r="G72" s="68">
+        <v>0.252</v>
+      </c>
+      <c r="H72" s="69">
+        <v>0.224</v>
+      </c>
+      <c r="I72" s="69">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="J72" s="68">
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E73" s="55">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F73" s="55">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G73" s="55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H73" s="55">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I73" s="55">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J73" s="55">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="74" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E74" s="57">
+        <v>33619</v>
+      </c>
+      <c r="F74" s="63">
+        <v>29296</v>
+      </c>
+      <c r="G74" s="77">
+        <v>42318</v>
+      </c>
+      <c r="H74" s="77">
+        <v>46214</v>
+      </c>
+      <c r="I74" s="78">
+        <v>48597</v>
+      </c>
+      <c r="J74" s="77">
+        <v>48167</v>
+      </c>
+    </row>
+    <row r="75" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E75" s="82"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="82"/>
+      <c r="H75" s="82"/>
+      <c r="I75" s="82"/>
+      <c r="J75" s="82"/>
+    </row>
+    <row r="76" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="83"/>
+      <c r="H76" s="83"/>
+      <c r="I76" s="83"/>
+      <c r="J76" s="83"/>
+    </row>
+    <row r="77" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E77" s="83"/>
+      <c r="F77" s="83"/>
+      <c r="G77" s="83"/>
+      <c r="H77" s="83"/>
+      <c r="I77" s="83"/>
+      <c r="J77" s="83"/>
+    </row>
+    <row r="78" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E78" s="84"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="84"/>
+      <c r="H78" s="84"/>
+      <c r="I78" s="84"/>
+      <c r="J78" s="84"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5B6B2A-22BB-234A-99B7-8736E7874F4B}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>2.483443708609272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <v>88.189845474613676</v>
+      </c>
+      <c r="C3">
+        <v>11.116576754130158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>91.390728476821209</v>
+      </c>
+      <c r="C4">
+        <v>6.7880794701986673</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5">
+        <v>37.858719646799116</v>
+      </c>
+      <c r="C5">
+        <v>2.1607916060101484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>88.686534216335531</v>
+      </c>
+      <c r="C6">
+        <v>3.2373089130380661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>24.944812362030909</v>
+      </c>
+      <c r="C7">
+        <v>3.6323361306631745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8">
+        <v>21.136865342163357</v>
+      </c>
+      <c r="C8">
+        <v>3.3619192959200879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9">
+        <v>43.598233995584998</v>
+      </c>
+      <c r="C9">
+        <v>1.4080961172376416</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99341371-646B-0D4F-8882-B5BDB1610B63}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3619,7 +6440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33E0B39-F6B5-314A-BEC9-769A8B8D8C22}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -5972,7 +8793,610 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33:P54"/>
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2">
+        <v>81.211041852181651</v>
+      </c>
+      <c r="C2">
+        <v>2.7221315177632412</v>
+      </c>
+      <c r="D2">
+        <v>0.10666666666666667</v>
+      </c>
+      <c r="E2">
+        <v>3.0550504633038954E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>86.553873552983092</v>
+      </c>
+      <c r="C3">
+        <v>1.7776388834631207</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>78.895814781834389</v>
+      </c>
+      <c r="C4">
+        <v>2.1825062046494468</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5">
+        <v>84.594835262689216</v>
+      </c>
+      <c r="C5">
+        <v>1.3428824718989139</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6">
+        <v>87.266251113089936</v>
+      </c>
+      <c r="C6">
+        <v>1.7559422921421231</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7">
+        <v>30.139372822299649</v>
+      </c>
+      <c r="C7">
+        <v>5.6479320827342647</v>
+      </c>
+      <c r="D7">
+        <v>50.883333333333333</v>
+      </c>
+      <c r="E7">
+        <v>3.1989425336090886</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>90.011614401858296</v>
+      </c>
+      <c r="C8">
+        <v>4.3565619822325221</v>
+      </c>
+      <c r="D8">
+        <v>0.08</v>
+      </c>
+      <c r="E8">
+        <v>7.2111025509279794E-2</v>
+      </c>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>34.204413472706158</v>
+      </c>
+      <c r="C9">
+        <v>1.2359928370379072</v>
+      </c>
+      <c r="D9">
+        <v>48.733333333333327</v>
+      </c>
+      <c r="E9">
+        <v>1.4189197769195159</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10">
+        <v>31.30193905817174</v>
+      </c>
+      <c r="C10">
+        <v>6.1772232087607311</v>
+      </c>
+      <c r="D10">
+        <v>33.660000000000004</v>
+      </c>
+      <c r="E10">
+        <v>0.87109126961530092</v>
+      </c>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11">
+        <v>53.019390581717452</v>
+      </c>
+      <c r="C11">
+        <v>2.912146615169291</v>
+      </c>
+      <c r="D11">
+        <v>24.756666666666671</v>
+      </c>
+      <c r="E11">
+        <v>0.49074772881118062</v>
+      </c>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12">
+        <v>24.321329639889193</v>
+      </c>
+      <c r="C12">
+        <v>3.8634467305509022</v>
+      </c>
+      <c r="D12">
+        <v>57.650000000000006</v>
+      </c>
+      <c r="E12">
+        <v>0.30805843601499044</v>
+      </c>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>93.074792243767305</v>
+      </c>
+      <c r="C13">
+        <v>3.4704619974217956</v>
+      </c>
+      <c r="D13">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="E13">
+        <v>7.5055534994651382E-2</v>
+      </c>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <v>24.321329639889196</v>
+      </c>
+      <c r="C14">
+        <v>3.066170438121147</v>
+      </c>
+      <c r="D14">
+        <v>52.126666666666665</v>
+      </c>
+      <c r="E14">
+        <v>6.658328118479527E-2</v>
+      </c>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15">
+        <v>27.922437673130197</v>
+      </c>
+      <c r="C15">
+        <v>2.912146615169291</v>
+      </c>
+      <c r="D15">
+        <v>44.22</v>
+      </c>
+      <c r="E15">
+        <v>0.59101607423148805</v>
+      </c>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16">
+        <v>39.00277008310249</v>
+      </c>
+      <c r="C16">
+        <v>3.0661704381211563</v>
+      </c>
+      <c r="D16">
+        <v>32.884999999999998</v>
+      </c>
+      <c r="E16">
+        <v>0.5868986283848332</v>
+      </c>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17">
+        <v>26.001780943900265</v>
+      </c>
+      <c r="C17">
+        <v>0.30550504633038922</v>
+      </c>
+      <c r="D17">
+        <v>69.353333333333339</v>
+      </c>
+      <c r="E17">
+        <v>0.98398848231741731</v>
+      </c>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <v>84.68388245770258</v>
+      </c>
+      <c r="C18">
+        <v>2.2338307903688657</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>29.385574354407829</v>
+      </c>
+      <c r="C19">
+        <v>0.52915026221291994</v>
+      </c>
+      <c r="D19">
+        <v>63.476666666666667</v>
+      </c>
+      <c r="E19">
+        <v>0.19655363983741009</v>
+      </c>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20">
+        <v>25.022261798753341</v>
+      </c>
+      <c r="C20">
+        <v>0.46188021535170104</v>
+      </c>
+      <c r="D20">
+        <v>54.493333333333332</v>
+      </c>
+      <c r="E20">
+        <v>0.46360903068569725</v>
+      </c>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21">
+        <v>54.229741763134456</v>
+      </c>
+      <c r="C21">
+        <v>5.2848841046895201</v>
+      </c>
+      <c r="D21">
+        <v>24.883333333333329</v>
+      </c>
+      <c r="E21">
+        <v>19.485133649357746</v>
+      </c>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J33" s="41"/>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J34" s="41"/>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J35" s="41"/>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J36" s="41"/>
+    </row>
+    <row r="37" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J37" s="41"/>
+    </row>
+    <row r="38" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J38" s="41"/>
+    </row>
+    <row r="39" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J39" s="41"/>
+    </row>
+    <row r="40" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J40" s="41"/>
+    </row>
+    <row r="41" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J41" s="41"/>
+    </row>
+    <row r="42" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J42" s="41"/>
+    </row>
+    <row r="43" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J43" s="41"/>
+    </row>
+    <row r="44" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J44" s="41"/>
+    </row>
+    <row r="45" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J45" s="41"/>
+    </row>
+    <row r="46" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J46" s="41"/>
+    </row>
+    <row r="47" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J47" s="41"/>
+    </row>
+    <row r="48" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J48" s="41"/>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J49" s="41"/>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J50" s="41"/>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J51" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8337557-F611-354B-B2F4-DD69CB8C47E2}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5996,780 +9420,70 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>81.211041852181651</v>
       </c>
       <c r="C2">
-        <v>4.8562229493959439</v>
+        <v>2.7221315177632412</v>
       </c>
       <c r="D2">
-        <v>3.3333333333333335E-3</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="E2">
-        <v>5.773502691896258E-3</v>
+        <v>3.0550504633038954E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="B3">
-        <v>73.344947735191653</v>
+        <v>30.139372822299649</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>5.6479320827342647</v>
       </c>
       <c r="D3">
-        <v>0.19000000000000003</v>
+        <v>50.883333333333333</v>
       </c>
       <c r="E3">
-        <v>4.5825756949558372E-2</v>
+        <v>3.1989425336090886</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="B4">
-        <v>91.114982578397218</v>
+        <v>24.321329639889193</v>
       </c>
       <c r="C4">
-        <v>2.1194294530655773</v>
+        <v>3.8634467305509022</v>
       </c>
       <c r="D4">
-        <v>61.753333333333337</v>
+        <v>57.650000000000006</v>
       </c>
       <c r="E4">
-        <v>4.9677895822320517</v>
+        <v>0.30805843601499044</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="B5">
-        <v>58.536585365853668</v>
+        <v>26.001780943900265</v>
       </c>
       <c r="C5">
-        <v>9.9226695929604247</v>
+        <v>0.30550504633038922</v>
       </c>
       <c r="D5">
-        <v>58.93</v>
+        <v>69.353333333333339</v>
       </c>
       <c r="E5">
-        <v>2.3766362784406025</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6">
-        <v>81.211041852181651</v>
-      </c>
-      <c r="C6">
-        <v>2.7221315177632412</v>
-      </c>
-      <c r="D6">
-        <v>0.10666666666666667</v>
-      </c>
-      <c r="E6">
-        <v>3.0550504633038954E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7">
-        <v>86.553873552983092</v>
-      </c>
-      <c r="C7">
-        <v>1.7776388834631207</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8">
-        <v>78.895814781834389</v>
-      </c>
-      <c r="C8">
-        <v>2.1825062046494468</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9">
-        <v>84.594835262689216</v>
-      </c>
-      <c r="C9">
-        <v>1.3428824718989139</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10">
-        <v>87.266251113089936</v>
-      </c>
-      <c r="C10">
-        <v>1.7559422921421231</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11">
-        <v>30.139372822299649</v>
-      </c>
-      <c r="C11">
-        <v>5.6479320827342647</v>
-      </c>
-      <c r="D11">
-        <v>50.883333333333333</v>
-      </c>
-      <c r="E11">
-        <v>3.1989425336090886</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12">
-        <v>90.011614401858296</v>
-      </c>
-      <c r="C12">
-        <v>4.3565619822325221</v>
-      </c>
-      <c r="D12">
-        <v>0.08</v>
-      </c>
-      <c r="E12">
-        <v>7.2111025509279794E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13">
-        <v>34.204413472706158</v>
-      </c>
-      <c r="C13">
-        <v>1.2359928370379072</v>
-      </c>
-      <c r="D13">
-        <v>48.733333333333327</v>
-      </c>
-      <c r="E13">
-        <v>1.4189197769195159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14">
-        <v>31.30193905817174</v>
-      </c>
-      <c r="C14">
-        <v>6.1772232087607311</v>
-      </c>
-      <c r="D14">
-        <v>33.660000000000004</v>
-      </c>
-      <c r="E14">
-        <v>0.87109126961530092</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15">
-        <v>53.019390581717452</v>
-      </c>
-      <c r="C15">
-        <v>2.912146615169291</v>
-      </c>
-      <c r="D15">
-        <v>24.756666666666671</v>
-      </c>
-      <c r="E15">
-        <v>0.49074772881118062</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16">
-        <v>24.321329639889193</v>
-      </c>
-      <c r="C16">
-        <v>3.8634467305509022</v>
-      </c>
-      <c r="D16">
-        <v>57.650000000000006</v>
-      </c>
-      <c r="E16">
-        <v>0.30805843601499044</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17">
-        <v>93.074792243767305</v>
-      </c>
-      <c r="C17">
-        <v>3.4704619974217956</v>
-      </c>
-      <c r="D17">
-        <v>0.21666666666666667</v>
-      </c>
-      <c r="E17">
-        <v>7.5055534994651382E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18">
-        <v>24.321329639889196</v>
-      </c>
-      <c r="C18">
-        <v>3.066170438121147</v>
-      </c>
-      <c r="D18">
-        <v>52.126666666666665</v>
-      </c>
-      <c r="E18">
-        <v>6.658328118479527E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19">
-        <v>27.922437673130197</v>
-      </c>
-      <c r="C19">
-        <v>2.912146615169291</v>
-      </c>
-      <c r="D19">
-        <v>44.22</v>
-      </c>
-      <c r="E19">
-        <v>0.59101607423148805</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20">
-        <v>39.00277008310249</v>
-      </c>
-      <c r="C20">
-        <v>3.0661704381211563</v>
-      </c>
-      <c r="D20">
-        <v>32.884999999999998</v>
-      </c>
-      <c r="E20">
-        <v>0.5868986283848332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21">
-        <v>26.001780943900265</v>
-      </c>
-      <c r="C21">
-        <v>0.30550504633038922</v>
-      </c>
-      <c r="D21">
-        <v>69.353333333333339</v>
-      </c>
-      <c r="E21">
         <v>0.98398848231741731</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22">
-        <v>84.68388245770258</v>
-      </c>
-      <c r="C22">
-        <v>2.2338307903688657</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23">
-        <v>29.385574354407829</v>
-      </c>
-      <c r="C23">
-        <v>0.52915026221291994</v>
-      </c>
-      <c r="D23">
-        <v>63.476666666666667</v>
-      </c>
-      <c r="E23">
-        <v>0.19655363983741009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24">
-        <v>25.022261798753341</v>
-      </c>
-      <c r="C24">
-        <v>0.46188021535170104</v>
-      </c>
-      <c r="D24">
-        <v>54.493333333333332</v>
-      </c>
-      <c r="E24">
-        <v>0.46360903068569725</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25">
-        <v>54.229741763134456</v>
-      </c>
-      <c r="C25">
-        <v>5.2848841046895201</v>
-      </c>
-      <c r="D25">
-        <v>24.883333333333329</v>
-      </c>
-      <c r="E25">
-        <v>19.485133649357746</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="J28" s="41"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="J29" s="41"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="J30" s="41"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="J31" s="41"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="J32" s="41"/>
-    </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J33" s="41"/>
-    </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J34" s="41"/>
-    </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J35" s="41"/>
-    </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J36" s="41"/>
-    </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J37" s="41"/>
-    </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J38" s="41"/>
-    </row>
-    <row r="39" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J39" s="41"/>
-    </row>
-    <row r="40" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J40" s="41"/>
-    </row>
-    <row r="41" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J41" s="41"/>
-    </row>
-    <row r="42" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J42" s="41"/>
-    </row>
-    <row r="43" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J43" s="41"/>
-    </row>
-    <row r="44" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J44" s="41"/>
-    </row>
-    <row r="45" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J45" s="41"/>
-    </row>
-    <row r="46" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J46" s="41"/>
-    </row>
-    <row r="47" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J47" s="41"/>
-    </row>
-    <row r="48" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J48" s="41"/>
-    </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J49" s="41"/>
-    </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J50" s="41"/>
-    </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J51" s="41"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36B19B9-AB9C-914F-8B00-CEB726A542CE}">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>4.8562229493959439</v>
-      </c>
-      <c r="D2">
-        <f>AVERAGE(F2:H2)</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="E2">
-        <f>STDEV(F2:H2)</f>
-        <v>5.773502691896258E-3</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0.01</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3">
-        <v>73.344947735191653</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D10" si="0">AVERAGE(F3:H3)</f>
-        <v>0.19000000000000003</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E10" si="1">STDEV(F3:H3)</f>
-        <v>4.5825756949558372E-2</v>
-      </c>
-      <c r="F3">
-        <v>0.2</v>
-      </c>
-      <c r="G3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H3">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4">
-        <v>91.114982578397218</v>
-      </c>
-      <c r="C4">
-        <v>2.1194294530655773</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>61.753333333333337</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>4.9677895822320517</v>
-      </c>
-      <c r="F4">
-        <v>64.78</v>
-      </c>
-      <c r="G4">
-        <v>64.459999999999994</v>
-      </c>
-      <c r="H4">
-        <v>56.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5">
-        <v>58.536585365853668</v>
-      </c>
-      <c r="C5">
-        <v>9.9226695929604247</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>58.93</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>2.3766362784406025</v>
-      </c>
-      <c r="F5">
-        <v>56.35</v>
-      </c>
-      <c r="G5">
-        <v>61.03</v>
-      </c>
-      <c r="H5">
-        <v>59.41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6">
-        <v>24.321329639889193</v>
-      </c>
-      <c r="C6">
-        <v>3.8634467305509022</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>57.650000000000006</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.30805843601499044</v>
-      </c>
-      <c r="F6">
-        <v>57.3</v>
-      </c>
-      <c r="G6" s="41">
-        <v>57.88</v>
-      </c>
-      <c r="H6" s="41">
-        <v>57.77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7">
-        <v>93.074792243767305</v>
-      </c>
-      <c r="C7">
-        <v>3.4704619974217956</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.21666666666666667</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>7.5055534994651382E-2</v>
-      </c>
-      <c r="F7">
-        <v>0.22</v>
-      </c>
-      <c r="G7" s="41">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H7" s="41">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8">
-        <v>24.321329639889196</v>
-      </c>
-      <c r="C8">
-        <v>3.066170438121147</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>52.126666666666665</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>6.658328118479527E-2</v>
-      </c>
-      <c r="F8">
-        <v>52.16</v>
-      </c>
-      <c r="G8" s="41">
-        <v>52.05</v>
-      </c>
-      <c r="H8" s="41">
-        <v>52.17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9">
-        <v>27.922437673130197</v>
-      </c>
-      <c r="C9">
-        <v>2.912146615169291</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>44.22</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0.59101607423148805</v>
-      </c>
-      <c r="F9">
-        <v>43.83</v>
-      </c>
-      <c r="G9" s="41">
-        <v>43.93</v>
-      </c>
-      <c r="H9" s="41">
-        <v>44.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10">
-        <v>39.00277008310249</v>
-      </c>
-      <c r="C10">
-        <v>3.0661704381211563</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>32.884999999999998</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>0.5868986283848332</v>
-      </c>
-      <c r="F10">
-        <v>32.47</v>
-      </c>
-      <c r="G10" s="41">
-        <v>33.299999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -6778,2460 +9492,199 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAECD63-FBB9-5A47-9DD1-E0DC50D9BA33}">
-  <dimension ref="B1:O28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD8ADCB-156E-3645-9C21-F888E0D8B5B2}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24:L28"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="C1" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B2" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="26">
-        <v>0.189</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="E2" s="26">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="F2" s="27">
-        <v>0.36</v>
-      </c>
-      <c r="G2" s="27">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="H2" s="34">
-        <v>0.376</v>
-      </c>
-      <c r="I2" s="25">
-        <v>0.16</v>
-      </c>
-      <c r="J2" s="26">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="K2" s="26">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="L2" s="8">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="M2" s="8">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="N2" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B3" s="86"/>
-      <c r="C3" s="29">
-        <v>0.19</v>
-      </c>
-      <c r="D3" s="16">
-        <v>0.26</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="F3" s="30">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="G3" s="30">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="H3" s="35">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="I3" s="17">
-        <v>0.16</v>
-      </c>
-      <c r="J3" s="29">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="K3" s="29">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="L3" s="12">
-        <v>0.626</v>
-      </c>
-      <c r="M3" s="12">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="N3" s="12">
-        <v>0.62</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B4" s="86"/>
-      <c r="C4" s="18">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="D4" s="18">
-        <v>3.9E-2</v>
-      </c>
-      <c r="E4" s="18">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="F4" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="G4" s="18">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="I4" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="J4" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="K4" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="L4" s="18">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="M4" s="18">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="N4" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B5" s="87"/>
-      <c r="C5" s="40">
-        <v>73882</v>
-      </c>
-      <c r="D5" s="22">
-        <v>52708</v>
-      </c>
-      <c r="E5" s="37">
-        <v>54438</v>
-      </c>
-      <c r="F5" s="21">
-        <v>40739</v>
-      </c>
-      <c r="G5" s="21">
-        <v>37220</v>
-      </c>
-      <c r="H5" s="21">
-        <v>40807</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="37">
-        <v>56486</v>
-      </c>
-      <c r="K5" s="37">
-        <v>58320</v>
-      </c>
-      <c r="L5" s="24">
-        <v>22511</v>
-      </c>
-      <c r="M5" s="24">
-        <v>19304</v>
-      </c>
-      <c r="N5" s="24">
-        <v>19145</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="25">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="D6" s="26">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="E6" s="26">
-        <v>0.191</v>
-      </c>
-      <c r="F6" s="26">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="G6" s="26">
-        <v>0.192</v>
-      </c>
-      <c r="H6" s="26">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="K6" s="10">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="L6" s="28">
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="N6" s="28">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="86"/>
-      <c r="C7" s="17">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="D7" s="29">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="E7" s="29">
-        <v>0.191</v>
-      </c>
-      <c r="F7" s="29">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="G7" s="29">
-        <v>0.193</v>
-      </c>
-      <c r="H7" s="29">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="I7" s="16">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="J7" s="16">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="K7" s="16">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="L7" s="13">
-        <v>0.67</v>
-      </c>
-      <c r="M7" s="12">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="N7" s="13">
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="86"/>
-      <c r="C8" s="18">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="D8" s="18">
-        <v>3.9E-2</v>
-      </c>
-      <c r="E8" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="F8" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="G8" s="18">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="H8" s="18">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="I8" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="J8" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="K8" s="18">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="L8" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="M8" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="N8" s="18">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B9" s="87"/>
-      <c r="C9" s="38">
-        <v>63464</v>
-      </c>
-      <c r="D9" s="37">
-        <v>59557</v>
-      </c>
-      <c r="E9" s="38">
-        <v>64421</v>
-      </c>
-      <c r="F9" s="37">
-        <v>54484</v>
-      </c>
-      <c r="G9" s="37">
-        <v>56049</v>
-      </c>
-      <c r="H9" s="37">
-        <v>56614</v>
-      </c>
-      <c r="I9" s="37">
-        <v>56125</v>
-      </c>
-      <c r="J9" s="22">
-        <v>53241</v>
-      </c>
-      <c r="K9" s="37">
-        <v>55790</v>
-      </c>
-      <c r="L9" s="24">
-        <v>18425</v>
-      </c>
-      <c r="M9" s="24">
-        <v>19788</v>
-      </c>
-      <c r="N9" s="24">
-        <v>18482</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="C10" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10" s="41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="C12" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="L12" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="C13">
-        <f>C2-C4</f>
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ref="D13:N13" si="0">D2-D4</f>
-        <v>0.219</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0.19899999999999998</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0.32</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>0.30100000000000005</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>0.16399999999999998</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>0.155</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
-        <v>0.53599999999999992</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="0"/>
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="C14">
-        <f>C13/$D$21</f>
-        <v>0.24432132963988917</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ref="D14:N14" si="1">D13/$D$21</f>
-        <v>0.36398891966759001</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>0.33074792243767309</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>0.53185595567867039</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>0.50027700831024935</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>0.55844875346260392</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>0.19944598337950137</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="1"/>
-        <v>0.27257617728531852</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="1"/>
-        <v>0.25761772853185594</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="1"/>
-        <v>0.95401662049861491</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="1"/>
-        <v>0.89085872576177272</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="1"/>
-        <v>0.94736842105263153</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="C16" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C17">
-        <f>C6-C8</f>
-        <v>0.126</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ref="D17:N17" si="2">D6-D8</f>
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>0.151</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
-        <v>0.16699999999999998</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>0.151</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>0.186</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="2"/>
-        <v>0.255</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="2"/>
-        <v>0.219</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="2"/>
-        <v>0.23</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="2"/>
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="2"/>
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="2"/>
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C18">
-        <f>C17/$D$21</f>
-        <v>0.20941828254847644</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ref="D18:N18" si="3">D17/$D$21</f>
-        <v>0.26925207756232689</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="3"/>
-        <v>0.25096952908587256</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="3"/>
-        <v>0.27756232686980603</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="3"/>
-        <v>0.25096952908587256</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="3"/>
-        <v>0.30914127423822713</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="3"/>
-        <v>0.42382271468144045</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="3"/>
-        <v>0.36398891966759001</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="3"/>
-        <v>0.38227146814404434</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="3"/>
-        <v>1.027146814404432</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="3"/>
-        <v>0.94238227146814391</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="3"/>
-        <v>1.0304709141274238</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="D20" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="J20" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="L20" s="41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C21" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="41">
-        <f>AVERAGE(L17:N17)</f>
-        <v>0.60166666666666668</v>
-      </c>
-      <c r="F21">
-        <f>D21/D$21</f>
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <f>F21*100</f>
-        <v>100</v>
-      </c>
-      <c r="H21" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21">
-        <f>C14*100</f>
-        <v>24.432132963988916</v>
-      </c>
-      <c r="J21">
-        <f t="shared" ref="J21:K21" si="4">D14*100</f>
-        <v>36.398891966759003</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="4"/>
-        <v>33.074792243767313</v>
-      </c>
-      <c r="L21">
-        <f>STDEV(I21:K21)</f>
-        <v>6.1772232087607311</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C22" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22">
-        <f>AVERAGE(C13:E13)</f>
-        <v>0.18833333333333332</v>
-      </c>
-      <c r="F22">
-        <f t="shared" ref="F22:F28" si="5">D22/D$21</f>
-        <v>0.3130193905817174</v>
-      </c>
-      <c r="G22">
-        <f t="shared" ref="G22:G28" si="6">F22*100</f>
-        <v>31.30193905817174</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I22">
-        <f>F14*100</f>
-        <v>53.18559556786704</v>
-      </c>
-      <c r="J22">
-        <f t="shared" ref="J22:K22" si="7">G14*100</f>
-        <v>50.027700831024937</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="7"/>
-        <v>55.844875346260395</v>
-      </c>
-      <c r="L22">
-        <f t="shared" ref="L22:L28" si="8">STDEV(I22:K22)</f>
-        <v>2.912146615169291</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C23" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23">
-        <f>AVERAGE(F13:H13)</f>
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="5"/>
-        <v>0.53019390581717452</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="6"/>
-        <v>53.019390581717452</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23">
-        <f>I14*100</f>
-        <v>19.944598337950136</v>
-      </c>
-      <c r="J23">
-        <f t="shared" ref="J23:K23" si="9">J14*100</f>
-        <v>27.257617728531851</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="9"/>
-        <v>25.761772853185594</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="8"/>
-        <v>3.8634467305509022</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C24" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24">
-        <f>AVERAGE(I13:K13)</f>
-        <v>0.14633333333333332</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="5"/>
-        <v>0.24321329639889194</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="6"/>
-        <v>24.321329639889193</v>
-      </c>
-      <c r="H24" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24">
-        <f>L14*100</f>
-        <v>95.401662049861486</v>
-      </c>
-      <c r="J24">
-        <f t="shared" ref="J24:K24" si="10">M14*100</f>
-        <v>89.085872576177266</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="10"/>
-        <v>94.73684210526315</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="8"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>86.553873552983092</v>
+      </c>
+      <c r="C2">
+        <v>1.7776388834631207</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>90.011614401858296</v>
+      </c>
+      <c r="C3">
+        <v>4.3565619822325221</v>
+      </c>
+      <c r="D3">
+        <v>0.08</v>
+      </c>
+      <c r="E3">
+        <v>7.2111025509279794E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>93.074792243767305</v>
+      </c>
+      <c r="C4">
         <v>3.4704619974217956</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C25" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25">
-        <f>AVERAGE(L13:N13)</f>
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="5"/>
-        <v>0.93074792243767301</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="6"/>
-        <v>93.074792243767305</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25">
-        <f>C18*100</f>
-        <v>20.941828254847643</v>
-      </c>
-      <c r="J25">
-        <f t="shared" ref="J25:K25" si="11">D18*100</f>
-        <v>26.925207756232687</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="11"/>
-        <v>25.096952908587255</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="8"/>
-        <v>3.066170438121147</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C26" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26">
-        <f>AVERAGE(C17:E17)</f>
-        <v>0.14633333333333334</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="5"/>
-        <v>0.24321329639889197</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="6"/>
-        <v>24.321329639889196</v>
-      </c>
-      <c r="H26" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="I26">
-        <f>F18*100</f>
-        <v>27.756232686980603</v>
-      </c>
-      <c r="J26">
-        <f t="shared" ref="J26:K26" si="12">G18*100</f>
-        <v>25.096952908587255</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="12"/>
-        <v>30.914127423822713</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="8"/>
-        <v>2.912146615169291</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C27" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27">
-        <f>AVERAGE(F17:H17)</f>
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="5"/>
-        <v>0.27922437673130196</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="6"/>
-        <v>27.922437673130197</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="I27">
-        <f>I18*100</f>
-        <v>42.382271468144047</v>
-      </c>
-      <c r="J27">
-        <f t="shared" ref="J27:K27" si="13">J18*100</f>
-        <v>36.398891966759003</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="13"/>
-        <v>38.227146814404435</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="8"/>
-        <v>3.0661704381211563</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C28" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28">
-        <f>AVERAGE(I17:K17)</f>
-        <v>0.23466666666666666</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="5"/>
-        <v>0.39002770083102489</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="6"/>
-        <v>39.00277008310249</v>
-      </c>
-      <c r="H28" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28">
-        <f>L18*100</f>
-        <v>102.7146814404432</v>
-      </c>
-      <c r="J28">
-        <f t="shared" ref="J28:K28" si="14">M18*100</f>
-        <v>94.238227146814395</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="14"/>
-        <v>103.04709141274238</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="8"/>
-        <v>4.9926089278252945</v>
+      <c r="D4">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="E4">
+        <v>7.5055534994651382E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>84.68388245770258</v>
+      </c>
+      <c r="C5">
+        <v>2.2338307903688657</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C058FAC-84B6-B94F-AD70-5B288E54D629}">
-  <dimension ref="E7:X78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89C978B-8583-B84C-8B60-2AB7103E08BF}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22:X33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="7" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E7" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E8" s="73">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="F8" s="73">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="G8" s="50">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="H8" s="73">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="I8" s="73">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="J8" s="49">
-        <v>0.38800000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E9" s="75">
-        <v>0.434</v>
-      </c>
-      <c r="F9" s="75">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="G9" s="54">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="H9" s="75">
-        <v>0.438</v>
-      </c>
-      <c r="I9" s="75">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="J9" s="53">
-        <v>0.39300000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E10" s="55">
-        <v>3.9E-2</v>
-      </c>
-      <c r="F10" s="55">
-        <v>0.04</v>
-      </c>
-      <c r="G10" s="56">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="H10" s="62">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="I10" s="55">
-        <v>3.9E-2</v>
-      </c>
-      <c r="J10" s="55">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E11" s="57">
-        <v>31703</v>
-      </c>
-      <c r="F11" s="63">
-        <v>28955</v>
-      </c>
-      <c r="G11" s="77">
-        <v>42294</v>
-      </c>
-      <c r="H11" s="57">
-        <v>30570</v>
-      </c>
-      <c r="I11" s="57">
-        <v>30527</v>
-      </c>
-      <c r="J11" s="63">
-        <v>29707</v>
-      </c>
-    </row>
-    <row r="12" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="N12">
-        <f>H9-H10</f>
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="O12">
-        <f t="shared" ref="O12:P12" si="0">I9-I10</f>
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="0"/>
-        <v>0.35400000000000004</v>
-      </c>
-      <c r="Q12">
-        <f>AVERAGE(N12:P12)</f>
-        <v>0.37433333333333335</v>
-      </c>
-    </row>
-    <row r="13" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-    </row>
-    <row r="14" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-    </row>
-    <row r="15" spans="5:17" ht="14" x14ac:dyDescent="0.15">
-      <c r="E15" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="I15" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="J15" s="84" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E16" s="47">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="F16" s="49">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="G16" s="50">
-        <v>0.36</v>
-      </c>
-      <c r="H16" s="50">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="I16" s="48">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="J16" s="60">
-        <v>0.309</v>
-      </c>
-    </row>
-    <row r="17" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E17" s="51">
-        <v>0.35</v>
-      </c>
-      <c r="F17" s="53">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="G17" s="54">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="H17" s="54">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="I17" s="52">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="J17" s="61">
-        <v>0.313</v>
-      </c>
-    </row>
-    <row r="18" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E18" s="55">
-        <v>0.04</v>
-      </c>
-      <c r="F18" s="55">
-        <v>0.04</v>
-      </c>
-      <c r="G18" s="56">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="H18" s="68">
-        <v>0.06</v>
-      </c>
-      <c r="I18" s="55">
-        <v>3.9E-2</v>
-      </c>
-      <c r="J18" s="55">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E19" s="57">
-        <v>32581</v>
-      </c>
-      <c r="F19" s="63">
-        <v>29104</v>
-      </c>
-      <c r="G19" s="57">
-        <v>30443</v>
-      </c>
-      <c r="H19" s="78">
-        <v>49382</v>
-      </c>
-      <c r="I19" s="59">
-        <v>41996</v>
-      </c>
-      <c r="J19" s="77">
-        <v>46907</v>
-      </c>
-    </row>
-    <row r="20" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-    </row>
-    <row r="21" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="Q21" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="R21" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="S21" s="41"/>
-      <c r="X21" s="41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="M22" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="N22">
-        <f>H25-H26</f>
-        <v>0.3</v>
-      </c>
-      <c r="O22">
-        <f t="shared" ref="O22:P22" si="1">I25-I26</f>
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="1"/>
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="Q22">
-        <f>AVERAGE(N22:P22)</f>
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="R22">
-        <f>Q22/Q$12*100</f>
-        <v>81.211041852181651</v>
-      </c>
-      <c r="S22">
-        <f>Q22/Q$12</f>
-        <v>0.81211041852181653</v>
-      </c>
-      <c r="U22">
-        <f>N22*100</f>
-        <v>30</v>
-      </c>
-      <c r="V22">
-        <f t="shared" ref="V22:W26" si="2">O22*100</f>
-        <v>27.900000000000002</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="2"/>
-        <v>33.300000000000004</v>
-      </c>
-      <c r="X22">
-        <f>STDEV(U22:W22)</f>
-        <v>2.7221315177632412</v>
-      </c>
-    </row>
-    <row r="23" spans="5:24" ht="14" x14ac:dyDescent="0.15">
-      <c r="E23" s="84" t="s">
-        <v>120</v>
-      </c>
-      <c r="F23" s="84" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="84" t="s">
-        <v>120</v>
-      </c>
-      <c r="H23" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="I23" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="J23" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="M23" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="N23">
-        <f>E33-E34</f>
-        <v>0.318</v>
-      </c>
-      <c r="O23">
-        <f t="shared" ref="O23:P23" si="3">F33-F34</f>
-        <v>0.34400000000000003</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="3"/>
-        <v>0.31</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" ref="Q23:Q33" si="4">AVERAGE(N23:P23)</f>
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="R23">
-        <f t="shared" ref="R23:R33" si="5">Q23/Q$12*100</f>
-        <v>86.553873552983092</v>
-      </c>
-      <c r="S23">
-        <f t="shared" ref="S23:S33" si="6">Q23/Q$12</f>
-        <v>0.86553873552983085</v>
-      </c>
-      <c r="U23">
-        <f t="shared" ref="U23:U33" si="7">N23*100</f>
-        <v>31.8</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="2"/>
-        <v>34.400000000000006</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="X23">
-        <f t="shared" ref="X23:X33" si="8">STDEV(U23:W23)</f>
-        <v>1.7776388834631207</v>
-      </c>
-    </row>
-    <row r="24" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E24" s="66">
-        <v>0.214</v>
-      </c>
-      <c r="F24" s="65">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="G24" s="65">
-        <v>0.255</v>
-      </c>
-      <c r="H24" s="47">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="I24" s="60">
-        <v>0.32</v>
-      </c>
-      <c r="J24" s="49">
-        <v>0.378</v>
-      </c>
-      <c r="M24" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="N24">
-        <f>H33-H34</f>
-        <v>0.29100000000000004</v>
-      </c>
-      <c r="O24">
-        <f t="shared" ref="O24:P24" si="9">I33-I34</f>
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="9"/>
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="4"/>
-        <v>0.29533333333333339</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="5"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2">
         <v>78.895814781834389</v>
       </c>
-      <c r="S24">
-        <f t="shared" si="6"/>
-        <v>0.78895814781834384</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="7"/>
-        <v>29.100000000000005</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="2"/>
-        <v>27.6</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="2"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="8"/>
+      <c r="C2">
         <v>2.1825062046494468</v>
       </c>
-    </row>
-    <row r="25" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E25" s="74">
-        <v>0.215</v>
-      </c>
-      <c r="F25" s="69">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="G25" s="68">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="H25" s="51">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="I25" s="61">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="J25" s="54">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="M25" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="N25">
-        <f>E40-E41</f>
-        <v>0.311</v>
-      </c>
-      <c r="O25">
-        <f t="shared" ref="O25:P25" si="10">F40-F41</f>
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="10"/>
-        <v>0.307</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="4"/>
-        <v>0.31666666666666665</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="5"/>
-        <v>84.594835262689216</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="6"/>
-        <v>0.84594835262689216</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="7"/>
-        <v>31.1</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="2"/>
-        <v>33.200000000000003</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="2"/>
-        <v>30.7</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="8"/>
-        <v>1.3428824718989139</v>
-      </c>
-    </row>
-    <row r="26" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E26" s="76">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="F26" s="55">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="G26" s="68">
-        <v>0.06</v>
-      </c>
-      <c r="H26" s="76">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="I26" s="56">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="J26" s="70">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="M26" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="N26">
-        <f>H40-H41</f>
-        <v>0.31</v>
-      </c>
-      <c r="O26">
-        <f t="shared" ref="O26:P26" si="11">I40-I41</f>
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="11"/>
-        <v>0.34500000000000003</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="4"/>
-        <v>0.32666666666666666</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="5"/>
-        <v>87.266251113089936</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="6"/>
-        <v>0.87266251113089932</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="7"/>
-        <v>31</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="2"/>
-        <v>32.5</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="2"/>
-        <v>34.5</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="8"/>
-        <v>1.7559422921421231</v>
-      </c>
-    </row>
-    <row r="27" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E27" s="64">
-        <v>77385</v>
-      </c>
-      <c r="F27" s="77">
-        <v>48186</v>
-      </c>
-      <c r="G27" s="77">
-        <v>48302</v>
-      </c>
-      <c r="H27" s="59">
-        <v>38245</v>
-      </c>
-      <c r="I27" s="59">
-        <v>39250</v>
-      </c>
-      <c r="J27" s="57">
-        <v>31606</v>
-      </c>
-    </row>
-    <row r="28" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-    </row>
-    <row r="29" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="M29" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="N29">
-        <f>E48-E49</f>
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="O29">
-        <f t="shared" ref="O29:P29" si="12">F48-F49</f>
-        <v>9.4E-2</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="12"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="4"/>
-        <v>9.7333333333333327E-2</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="5"/>
-        <v>26.001780943900265</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="6"/>
-        <v>0.26001780943900266</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="7"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="V29">
-        <f t="shared" ref="V29:V33" si="13">O29*100</f>
-        <v>9.4</v>
-      </c>
-      <c r="W29">
-        <f t="shared" ref="W29:W33" si="14">P29*100</f>
-        <v>10</v>
-      </c>
-      <c r="X29">
-        <f t="shared" si="8"/>
-        <v>0.30550504633038922</v>
-      </c>
-    </row>
-    <row r="30" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="M30" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="N30">
-        <f>H48-H49</f>
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="O30">
-        <f t="shared" ref="O30:P30" si="15">I48-I49</f>
-        <v>0.29200000000000004</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="15"/>
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="4"/>
-        <v>0.317</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="5"/>
-        <v>84.68388245770258</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="6"/>
-        <v>0.84683882457702575</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="7"/>
-        <v>33.5</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="13"/>
-        <v>29.200000000000003</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="14"/>
-        <v>32.4</v>
-      </c>
-      <c r="X30">
-        <f t="shared" si="8"/>
-        <v>2.2338307903688657</v>
-      </c>
-    </row>
-    <row r="31" spans="5:24" ht="14" x14ac:dyDescent="0.15">
-      <c r="E31" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="G31" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="H31" s="84" t="s">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>100</v>
       </c>
-      <c r="I31" s="84" t="s">
+      <c r="B3">
+        <v>34.204413472706158</v>
+      </c>
+      <c r="C3">
+        <v>1.2359928370379072</v>
+      </c>
+      <c r="D3">
+        <v>48.733333333333327</v>
+      </c>
+      <c r="E3">
+        <v>1.4189197769195159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>100</v>
       </c>
-      <c r="J31" s="84" t="s">
+      <c r="B4">
+        <v>24.321329639889196</v>
+      </c>
+      <c r="C4">
+        <v>3.066170438121147</v>
+      </c>
+      <c r="D4">
+        <v>52.126666666666665</v>
+      </c>
+      <c r="E4">
+        <v>6.658328118479527E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>100</v>
       </c>
-      <c r="M31" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="N31">
-        <f>E56-E57</f>
-        <v>0.10799999999999998</v>
-      </c>
-      <c r="O31">
-        <f t="shared" ref="O31:P31" si="16">F56-F57</f>
-        <v>0.10599999999999998</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="16"/>
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="4"/>
-        <v>0.10999999999999999</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="5"/>
+      <c r="B5">
         <v>29.385574354407829</v>
       </c>
-      <c r="S31">
-        <f t="shared" si="6"/>
-        <v>0.29385574354407829</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="7"/>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="13"/>
-        <v>10.599999999999998</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="14"/>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="8"/>
+      <c r="C5">
         <v>0.52915026221291994</v>
       </c>
-    </row>
-    <row r="32" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E32" s="50">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="F32" s="49">
-        <v>0.378</v>
-      </c>
-      <c r="G32" s="47">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="H32" s="47">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="I32" s="60">
-        <v>0.316</v>
-      </c>
-      <c r="J32" s="50">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="M32" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="N32">
-        <f>H56-H57</f>
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="O32">
-        <f t="shared" ref="O32:P32" si="17">I56-I57</f>
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="17"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="4"/>
-        <v>9.3666666666666676E-2</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="5"/>
-        <v>25.022261798753341</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="6"/>
-        <v>0.25022261798753342</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="7"/>
-        <v>9.1</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="13"/>
-        <v>9.1</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="14"/>
-        <v>9.9</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="8"/>
-        <v>0.46188021535170104</v>
-      </c>
-    </row>
-    <row r="33" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E33" s="54">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="F33" s="53">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="G33" s="51">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="H33" s="51">
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="I33" s="61">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="J33" s="54">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="M33" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="N33">
-        <f>E64-E65</f>
-        <v>0.154</v>
-      </c>
-      <c r="O33">
-        <f t="shared" ref="O33:P33" si="18">F64-F65</f>
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="18"/>
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="4"/>
-        <v>0.20299999999999999</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="5"/>
-        <v>54.229741763134456</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="6"/>
-        <v>0.54229741763134454</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="7"/>
-        <v>15.4</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="13"/>
-        <v>25.900000000000002</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="14"/>
-        <v>19.600000000000001</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="8"/>
-        <v>5.2848841046895201</v>
-      </c>
-    </row>
-    <row r="34" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E34" s="55">
-        <v>3.9E-2</v>
-      </c>
-      <c r="F34" s="55">
-        <v>3.9E-2</v>
-      </c>
-      <c r="G34" s="55">
-        <v>3.9E-2</v>
-      </c>
-      <c r="H34" s="56">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="I34" s="56">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="J34" s="76">
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E35" s="57">
-        <v>31992</v>
-      </c>
-      <c r="F35" s="57">
-        <v>31280</v>
-      </c>
-      <c r="G35" s="57">
-        <v>31514</v>
-      </c>
-      <c r="H35" s="57">
-        <v>32137</v>
-      </c>
-      <c r="I35" s="57">
-        <v>32959</v>
-      </c>
-      <c r="J35" s="59">
-        <v>39826</v>
-      </c>
-    </row>
-    <row r="38" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E38" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="H38" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="I38" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="J38" s="41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E39" s="50">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="F39" s="50">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="G39" s="47">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="H39" s="50">
-        <v>0.35</v>
-      </c>
-      <c r="I39" s="50">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="J39" s="49">
-        <v>0.379</v>
-      </c>
-    </row>
-    <row r="40" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E40" s="51">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="F40" s="54">
-        <v>0.371</v>
-      </c>
-      <c r="G40" s="51">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="H40" s="51">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="I40" s="54">
-        <v>0.373</v>
-      </c>
-      <c r="J40" s="53">
-        <v>0.38400000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E41" s="55">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="F41" s="55">
-        <v>3.9E-2</v>
-      </c>
-      <c r="G41" s="55">
-        <v>0.04</v>
-      </c>
-      <c r="H41" s="56">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="I41" s="70">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="J41" s="55">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E42" s="57">
-        <v>31527</v>
-      </c>
-      <c r="F42" s="57">
-        <v>31117</v>
-      </c>
-      <c r="G42" s="57">
-        <v>32196</v>
-      </c>
-      <c r="H42" s="57">
-        <v>32642</v>
-      </c>
-      <c r="I42" s="63">
-        <v>29777</v>
-      </c>
-      <c r="J42" s="63">
-        <v>29506</v>
-      </c>
-    </row>
-    <row r="43" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
-    </row>
-    <row r="44" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-    </row>
-    <row r="45" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="83"/>
-      <c r="J45" s="83"/>
-    </row>
-    <row r="46" spans="5:24" ht="14" x14ac:dyDescent="0.15">
-      <c r="E46" s="84" t="s">
-        <v>111</v>
-      </c>
-      <c r="F46" s="84" t="s">
-        <v>111</v>
-      </c>
-      <c r="G46" s="84" t="s">
-        <v>111</v>
-      </c>
-      <c r="H46" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="I46" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="J46" s="84" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E47" s="67">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="F47" s="67">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="G47" s="67">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="H47" s="50">
-        <v>0.371</v>
-      </c>
-      <c r="I47" s="47">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="J47" s="50">
-        <v>0.35899999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="5:24" x14ac:dyDescent="0.15">
-      <c r="E48" s="70">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="F48" s="76">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="G48" s="70">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="H48" s="54">
-        <v>0.376</v>
-      </c>
-      <c r="I48" s="51">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="J48" s="54">
-        <v>0.36399999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E49" s="55">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F49" s="55">
-        <v>3.9E-2</v>
-      </c>
-      <c r="G49" s="56">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="H49" s="55">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="I49" s="55">
-        <v>3.9E-2</v>
-      </c>
-      <c r="J49" s="55">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="50" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E50" s="58">
-        <v>97436</v>
-      </c>
-      <c r="F50" s="64">
-        <v>75163</v>
-      </c>
-      <c r="G50" s="64">
-        <v>76244</v>
-      </c>
-      <c r="H50" s="57">
-        <v>33675</v>
-      </c>
-      <c r="I50" s="57">
-        <v>33346</v>
-      </c>
-      <c r="J50" s="63">
-        <v>28264</v>
-      </c>
-    </row>
-    <row r="51" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
-    </row>
-    <row r="52" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="83"/>
-    </row>
-    <row r="53" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="83"/>
-    </row>
-    <row r="54" spans="5:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="E54" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="F54" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="G54" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="H54" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="I54" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="J54" s="84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E55" s="67">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="F55" s="67">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="G55" s="79">
-        <v>0.16</v>
-      </c>
-      <c r="H55" s="80">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="I55" s="80">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="J55" s="67">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E56" s="70">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="F56" s="70">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="G56" s="70">
-        <v>0.16</v>
-      </c>
-      <c r="H56" s="76">
-        <v>0.13</v>
-      </c>
-      <c r="I56" s="76">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="J56" s="70">
-        <v>0.13900000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E57" s="55">
-        <v>0.04</v>
-      </c>
-      <c r="F57" s="55">
-        <v>0.04</v>
-      </c>
-      <c r="G57" s="56">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="H57" s="55">
-        <v>3.9E-2</v>
-      </c>
-      <c r="I57" s="55">
-        <v>0.04</v>
-      </c>
-      <c r="J57" s="55">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="58" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E58" s="64">
-        <v>73174</v>
-      </c>
-      <c r="F58" s="71">
-        <v>71482</v>
-      </c>
-      <c r="G58" s="64">
-        <v>73083</v>
-      </c>
-      <c r="H58" s="81">
-        <v>80760</v>
-      </c>
-      <c r="I58" s="71">
-        <v>71054</v>
-      </c>
-      <c r="J58" s="64">
-        <v>76935</v>
-      </c>
-    </row>
-    <row r="59" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="82"/>
-      <c r="H59" s="82"/>
-      <c r="I59" s="82"/>
-      <c r="J59" s="82"/>
-    </row>
-    <row r="60" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="83"/>
-      <c r="J60" s="83"/>
-    </row>
-    <row r="61" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="83"/>
-      <c r="J61" s="83"/>
-    </row>
-    <row r="62" spans="5:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="E62" s="84" t="s">
-        <v>115</v>
-      </c>
-      <c r="F62" s="84" t="s">
-        <v>99</v>
-      </c>
-      <c r="G62" s="84" t="s">
-        <v>99</v>
-      </c>
-      <c r="H62" s="84" t="s">
-        <v>126</v>
-      </c>
-      <c r="I62" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="J62" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E63" s="72">
-        <v>0.191</v>
-      </c>
-      <c r="F63" s="60">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="G63" s="66">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="H63" s="47">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="I63" s="60">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="J63" s="48">
-        <v>0.27300000000000002</v>
-      </c>
-    </row>
-    <row r="64" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E64" s="74">
-        <v>0.193</v>
-      </c>
-      <c r="F64" s="52">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="G64" s="69">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="H64" s="61">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="I64" s="52">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="J64" s="52">
-        <v>0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="65" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E65" s="55">
-        <v>3.9E-2</v>
-      </c>
-      <c r="F65" s="55">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="G65" s="56">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="H65" s="55">
-        <v>3.9E-2</v>
-      </c>
-      <c r="I65" s="55">
-        <v>3.9E-2</v>
-      </c>
-      <c r="J65" s="55">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="66" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E66" s="71">
-        <v>72139</v>
-      </c>
-      <c r="F66" s="57">
-        <v>35129</v>
-      </c>
-      <c r="G66" s="77">
-        <v>45187</v>
-      </c>
-      <c r="H66" s="59">
-        <v>38544</v>
-      </c>
-      <c r="I66" s="57">
-        <v>34431</v>
-      </c>
-      <c r="J66" s="57">
-        <v>35123</v>
-      </c>
-    </row>
-    <row r="70" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E70" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="H70" s="41" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="71" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E71" s="47">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="F71" s="60">
-        <v>0.308</v>
-      </c>
-      <c r="G71" s="65">
-        <v>0.25</v>
-      </c>
-      <c r="H71" s="66">
-        <v>0.223</v>
-      </c>
-      <c r="I71" s="66">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="J71" s="65">
-        <v>0.24199999999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E72" s="51">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="F72" s="61">
-        <v>0.311</v>
-      </c>
-      <c r="G72" s="68">
-        <v>0.252</v>
-      </c>
-      <c r="H72" s="69">
-        <v>0.224</v>
-      </c>
-      <c r="I72" s="69">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="J72" s="68">
-        <v>0.24399999999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E73" s="55">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F73" s="55">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="G73" s="55">
-        <v>3.9E-2</v>
-      </c>
-      <c r="H73" s="55">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="I73" s="55">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="J73" s="55">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="74" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E74" s="57">
-        <v>33619</v>
-      </c>
-      <c r="F74" s="63">
-        <v>29296</v>
-      </c>
-      <c r="G74" s="77">
-        <v>42318</v>
-      </c>
-      <c r="H74" s="77">
-        <v>46214</v>
-      </c>
-      <c r="I74" s="78">
-        <v>48597</v>
-      </c>
-      <c r="J74" s="77">
-        <v>48167</v>
-      </c>
-    </row>
-    <row r="75" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E75" s="82"/>
-      <c r="F75" s="82"/>
-      <c r="G75" s="82"/>
-      <c r="H75" s="82"/>
-      <c r="I75" s="82"/>
-      <c r="J75" s="82"/>
-    </row>
-    <row r="76" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="83"/>
-      <c r="H76" s="83"/>
-      <c r="I76" s="83"/>
-      <c r="J76" s="83"/>
-    </row>
-    <row r="77" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E77" s="83"/>
-      <c r="F77" s="83"/>
-      <c r="G77" s="83"/>
-      <c r="H77" s="83"/>
-      <c r="I77" s="83"/>
-      <c r="J77" s="83"/>
-    </row>
-    <row r="78" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E78" s="84"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="84"/>
-      <c r="H78" s="84"/>
-      <c r="I78" s="84"/>
-      <c r="J78" s="84"/>
+      <c r="D5">
+        <v>63.476666666666667</v>
+      </c>
+      <c r="E5">
+        <v>0.19655363983741009</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9239,20 +9692,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5B6B2A-22BB-234A-99B7-8736E7874F4B}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281FF954-3AF7-594C-8915-90DE959556D3}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="45" t="s">
         <v>67</v>
       </c>
@@ -9262,93 +9711,79 @@
       <c r="C1" s="45" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="41" t="s">
-        <v>102</v>
+      <c r="D1" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>98</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>84.594835262689216</v>
       </c>
       <c r="C2">
-        <v>2.483443708609272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="41" t="s">
-        <v>70</v>
+        <v>1.3428824718989139</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>98</v>
       </c>
       <c r="B3">
-        <v>88.189845474613676</v>
+        <v>31.30193905817174</v>
       </c>
       <c r="C3">
-        <v>11.116576754130158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
-        <v>59</v>
+        <v>6.1772232087607311</v>
+      </c>
+      <c r="D3">
+        <v>33.660000000000004</v>
+      </c>
+      <c r="E3">
+        <v>0.87109126961530092</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>98</v>
       </c>
       <c r="B4">
-        <v>91.390728476821209</v>
+        <v>27.922437673130197</v>
       </c>
       <c r="C4">
-        <v>6.7880794701986673</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="41" t="s">
-        <v>101</v>
+        <v>2.912146615169291</v>
+      </c>
+      <c r="D4">
+        <v>44.22</v>
+      </c>
+      <c r="E4">
+        <v>0.59101607423148805</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>98</v>
       </c>
       <c r="B5">
-        <v>37.858719646799116</v>
+        <v>25.022261798753341</v>
       </c>
       <c r="C5">
-        <v>2.1607916060101484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6">
-        <v>88.686534216335531</v>
-      </c>
-      <c r="C6">
-        <v>3.2373089130380661</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7">
-        <v>24.944812362030909</v>
-      </c>
-      <c r="C7">
-        <v>3.6323361306631745</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8">
-        <v>21.136865342163357</v>
-      </c>
-      <c r="C8">
-        <v>3.3619192959200879</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9">
-        <v>43.598233995584998</v>
-      </c>
-      <c r="C9">
-        <v>1.4080961172376416</v>
+        <v>0.46188021535170104</v>
+      </c>
+      <c r="D5">
+        <v>54.493333333333332</v>
+      </c>
+      <c r="E5">
+        <v>0.46360903068569725</v>
       </c>
     </row>
   </sheetData>
